--- a/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
+++ b/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\LA_Sikuli\LA_Sikuli\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85297998-34BB-48F5-A827-B6B59EE54D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7DB77-43C3-4471-A4CE-4126AC2F1ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>RunTest</t>
   </si>
@@ -59,26 +59,59 @@
     <t>Class Name</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Aim of the script is to Create a Multiple New Stories  and Publish the same</t>
   </si>
   <si>
-    <t>StoryCases</t>
-  </si>
-  <si>
-    <t>VerifyMultipleStoryPublish</t>
+    <t>Aim of the script is to Create a  Multiple New Alerts,Publish and Verify in the GRID</t>
+  </si>
+  <si>
+    <t>FW_UI_0002</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>VerifyPublishScenarios</t>
+  </si>
+  <si>
+    <t>PublishCases</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create Mulitple New  Econs , Publilsh and Verify in the Grid</t>
+  </si>
+  <si>
+    <t>FW_UI_0003</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline,Test,Test,TestMe,Test.V, Test,T,Taslic/,NA</t>
+  </si>
+  <si>
+    <t>Econ,64424509456,7,5,NA,NA, NA,NA,NA,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Story and Save as Template</t>
+  </si>
+  <si>
+    <t>TemplateCases</t>
+  </si>
+  <si>
+    <t>FW_UI_0004</t>
+  </si>
+  <si>
+    <t>VerifyTemplateScenarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +125,11 @@
       <b/>
       <sz val="10"/>
       <color indexed="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -110,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,11 +171,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -149,6 +222,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -398,7 +492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -699,10 +793,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -738,23 +832,83 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
+++ b/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\LA_Sikuli\LA_Sikuli\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7DB77-43C3-4471-A4CE-4126AC2F1ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583038F-063E-4968-AAA7-3771A8025D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="620">
   <si>
     <t>RunTest</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FW_UI_0001</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Aim of the script is to Create a  Multiple New Alerts,Publish and Verify in the GRID</t>
   </si>
   <si>
-    <t>FW_UI_0002</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,32 +80,1834 @@
     <t>Aim of the script is to Create Mulitple New  Econs , Publilsh and Verify in the Grid</t>
   </si>
   <si>
-    <t>FW_UI_0003</t>
-  </si>
-  <si>
-    <t>Alert,TestAlertHeadline,Test,Test,TestMe,Test.V, Test,T,Taslic/,NA</t>
-  </si>
-  <si>
-    <t>Econ,64424509456,7,5,NA,NA, NA,NA,NA,NA</t>
-  </si>
-  <si>
     <t>Aim of the script is to Create a New Story and Save as Template</t>
   </si>
   <si>
     <t>TemplateCases</t>
   </si>
   <si>
-    <t>FW_UI_0004</t>
-  </si>
-  <si>
     <t>VerifyTemplateScenarios</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New ALERT and Save as Template</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New  Econ Data and save the same as template</t>
+  </si>
+  <si>
+    <t>VerifyPublishNegativeScenarios</t>
+  </si>
+  <si>
+    <t>Story,,,,,,,,,TestStory</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Story without mandatoy fields and ensure that Publish Button is still Disabled</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Alert without mandatoy fields and ensure that Publish Button is still Disabled</t>
+  </si>
+  <si>
+    <t>Alert,,,Test,,,,,,NA</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA</t>
+  </si>
+  <si>
+    <t>Econ,64424509456,7,5,NA,NA,NA,NA,NA,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New  Econ Data with out mandatory fileds, and Ensure that Publish Button is still disabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509456,,,NA,NA,NA,NA,NA,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts and Publish</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories and Publish</t>
+  </si>
+  <si>
+    <t>VerifyBundlePublish</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Econs and Publish</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts and Stories and Publish</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Story,TestStoryHeadline2,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Alert,TestAlertHeadline2,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Econ,64424509452,7,5,NA,NA,NA,NA,NA,NA</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories Econs and Publish</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with MultipleAlerts  Econs and Publish</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories Econs ,Alerts and Publish</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with a Stories and save as Template  Ensure that Values of Asset are saved when the templated is opened</t>
+  </si>
+  <si>
+    <t>VerifyBundleTemplate</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with a Alerts  and save as Template,and Ensure that Values of Asset are saved when the templated is opened</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with a Econs  and save as Template, Ensure that Values of Asset are saved when the templated is opened</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with a Stories, Alerts  and save as Template, Ensure that Values of Asset are saved when the templated is opened</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with a Stories, Econs  and save as Template, Ensure that Values of Asset are saved when the templated is opened</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with a Alerts, Econs  and save as Template, Ensure that Values of Asset are saved when the templated is opened</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with a Stories, Alerts, Econs  and save as Template, Ensure that Values of Asset are saved when the templated is opened</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories and Send the same to Queue</t>
+  </si>
+  <si>
+    <t>QueueCases</t>
+  </si>
+  <si>
+    <t>VerifyBundleQueue</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts and Send the same to Queue</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Econs and Send the same to Queue</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Alerts and Send the same to Queue</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Econs and Send the same to Queue</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts , Econs and Send the same to Queue</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories,Alerts , Econs and Send the same to Queue</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Story and Delete the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Alert and Delete the same</t>
+  </si>
+  <si>
+    <t>VerifyDelete</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New  Econ , Delete the same</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Stories and Delete only the story</t>
+  </si>
+  <si>
+    <t>VerifyBundleDelete</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Alert and Delete only the Alert</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Econ and Delete only the Econ</t>
+  </si>
+  <si>
+    <t>VerifyAssetSave</t>
+  </si>
+  <si>
+    <t>AssetCases</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Navigate</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Relaunch</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Wait</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Relaunch</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Navigate</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,NewWorkspace</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Wait</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New  Econ , and Close the Thor,and Reopen again and ensure that Asset is saved</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Relaunch</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Navigate</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,NewWorkspace</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Wait</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,,,NA,NA,NA,NA,NA,NA,Navigate</t>
+  </si>
+  <si>
+    <t>Econ,,7,,NA,NA,NA,NA,NA,NA,Navigate</t>
+  </si>
+  <si>
+    <t>Econ,,,5,NA,NA,NA,NA,NA,NA,Navigate</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Story with upper case field values and Publish the same</t>
+  </si>
+  <si>
+    <t>Story,TESTSTORYHEADLINE,TEST,TEST,TESTME,TEST.V,TEST,T,TASLIC/,TESTSTORY</t>
+  </si>
+  <si>
+    <t>Alert,TESTALERTHEADLINE,TEST,TEST,TESTME,TEST.V,TEST,T,TASLIC/,NA</t>
+  </si>
+  <si>
+    <t>VerifyAssetUpdate</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create Story  ,move to other Asset screen and Verify  old Asset is saved.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  a  Alert and Close the Thor and Re_open and Verify Asset is saved</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  an Econ Data ,  Navigate_Screen to different screen ,back to Econ screen ensure that Econ is saved properly</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  an Econ Data ,  Navigate_Screen to New Asset screen ,back to Econ screen ensure that  Econ is saved properly</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  an Econ Data ,  wait for three minutes ensure that  Econ is saved properly</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  an Econ Data ,Filling only Ric values Leaving others as Blank ,  Navigate_Screen to different screen ,back to Econ screen ensure that Econ is saved properly</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  an Econ Data ,Filling only Actual value Leaving others as Blank ,  Navigate_Screen to different screen ,back to Econ screen ensure that Econ is saved properly</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  an Econ Data ,Filling only RIV value Leaving others as Blank ,  Navigate_Screen to different screen ,back to Econ screen ensure that Econ is saved properly</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create  an Alert with upper case input data,  Publish and Verify in the Grid</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Validate the "Head line" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Story,Update the Data and Close the Thor and Re_open and Verify Asset is saved</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Story and Close the Thor and Re_open and Verify Asset is saved</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Story ,Navigate to other screen and back to Asset screen and Verify Asset is saved.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Story ,wait for three minutes and ensure that  asset is saved properly</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Alert ,Navigate to other screen and back to Alert screen, Verify Asset is saved.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Alert ,Navigate to New Alert screen and back to old Alert screen, Verify old Asset is saved.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Alert ,Wait for three minutes and verify Asset is saved..</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Alert,Update the Data and Close the Thor and Re_open and Verify Asset is saved</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Alert,Update the Data and Navigate to other scren Verify Asset is saved</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Alert,Update the Data ,Try creating one more Alert in work space and Verify First is Asset is saved.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Alert,Update the Data ,Wait for  three minutes and Verify First is Asset is saved</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to create a Story,Update the Data, Navigate_Screen to other screen and Verify Asset is saved.</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,TestStoryHeadlineUpdated,Relaunch</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,TestAlertHeadlineUpdated,Relaunch</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,TestAlertHeadlineUpdated,Navigate</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,TestAlertHeadlineUpdated,CreateNew</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,TestAlertHeadlineUpdated,Wait</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,TestStoryHeadlineUpdated,Navigate</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the "Product Code" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the "Address code" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the "Named items" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the Boundary "Head line" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the Boundary "Address codes" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the Boundary "Product code" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the Boundary "Named Items" field of the Asset "Story"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the "Head line" field of the Asset "Alert"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the "Product code" field of the Asset "Alert"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the "Address code" field of the Asset "Alert"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the "Name items" field of the Asset "Alert"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the Boundary "Head line" field of the Asset "Alert"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the Boundary "Address_Codes" field of the Asset "Alert"</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to Validate the Boundary "Product code" field of the Asset "Alert"</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Cylic Alert,and save it as Template</t>
+  </si>
+  <si>
+    <t>VerifyAssetField</t>
+  </si>
+  <si>
+    <t>Alert,Address,testheadline,Normal</t>
+  </si>
+  <si>
+    <t>Alert,Product,testheadline,Normal</t>
+  </si>
+  <si>
+    <t>Story,Address,testheadline,Normal</t>
+  </si>
+  <si>
+    <t>Story,Address,testheadline,Boundary</t>
+  </si>
+  <si>
+    <t>Alert,Address,testheadline,Boundary</t>
+  </si>
+  <si>
+    <t>Alert,Product,testheadline,Boundary</t>
+  </si>
+  <si>
+    <t>Story,Headline,12345678900123456789001234567890123456789123456782345678345678345678wertyuiolomn,Normal</t>
+  </si>
+  <si>
+    <t>Story,Headline,12345678900123456789001234567890123456789123456782345678345678345678wertyuiolomn1111,Boundary</t>
+  </si>
+  <si>
+    <t>Story,Product,wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwww123456789123456,Normal</t>
+  </si>
+  <si>
+    <t>Alert,Headline,12234654374Q376Q576452765378258735278357825375712357825378158735187378138761873817637816783617861786,Normal</t>
+  </si>
+  <si>
+    <t>Alert,Headline,12234654374Q376Q57645276537825873527835782537571235782537815873518737813876187381763781678361786178611111,Boundary</t>
+  </si>
+  <si>
+    <t>Story,Product,testheadline,Boundary</t>
+  </si>
+  <si>
+    <t>Story,NamedItems,1234567890,Normal</t>
+  </si>
+  <si>
+    <t>Story,NamedItems,12345678901,Boundary</t>
+  </si>
+  <si>
+    <t>Alert,NamedItems,1234567890,Normal</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Cylic Alert,Publish and Verify in the GRID</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Cylic Alert,Ensure that USN is not changed,Publish and Verify in the GRID</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Cylic Alert in a Package,Publish and Verify in the GRID</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Cylic Alert in a Package,Ensure that USN is not changed,Publish and Verify in the GRID</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Cylic Alert in a Package, and Save it as Template</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1Cyclical,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA</t>
+  </si>
+  <si>
+    <t>Alert,TESTALERTHEADLINECyclical,TEST,TEST,TESTME,TEST.V,TEST,T,TASLIC/,NA</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1Cyclical,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Alert,TestAlertHeadline2Cyclical,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the filed "Actual"  (20 charecters ), and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  and ensure that Description field is autopopulated.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the filed "RIC" and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Revised" (20 charecters)  and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "RIC" (12 charecters)  and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Actual" (1-) and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Revised" (1-)    and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Actual" (2.) and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Actual" (0..2) and verify that Publish button is still disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Actual" (2-)   and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Actual" (2--0)    and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Revised " (0..2)   and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Revised " (2.)   and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Revised " (1-)   and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "Revised " (2--0)   and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid value for the field "RIC"   and verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid values for all the fields   verify that Publish button is still disabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break and Ensure that  Publish Button is enabled
+' and verify that Publish button is still enabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break (Rev) and  Ensure that  Publish Button is enabled
+' and verify that Publish button is still enabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break (Actual and Rev) and Ensure that  Publish Button is enabled and verify that Publish button is still enabled.</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  a   Story  and save the same as Template with invalid key board short cuts and    ensure that Template should not be saved</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Alert  and save it as Template with invalid short cut keys    and ensure that Template is not saved</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an  Econ  and save it as Template with invalid short cut keys   and ensure that Template is not saved</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Business Eventories calender Events (Values : Actual-12, Prior-11 Forecast-12)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Business Eventories calender Events (Values : Actual- -0.98, Prior-1 Forecast-0)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Business Eventories calender Events (Values : Actual- -0, Prior-2 Forecast-3)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Consumer Confidence cal Events (Values : Actual- -15, Prior-15 Forecast-15)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Consumer Confidence cal Events (Values : Actual- -10, Prior-15 Forecast-12)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Consumer Confidence cal Events (Values : Actual- -17, Prior-15 Forecast-12)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Current Account cal Events (Values : Actual- -12, Prior-12 Forecast-12)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Current Account cal Events (Values : Actual- -10, Prior-12 Forecast-16)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Federal Funds  cal Events (Values : Actual- -14, Prior-14 Forecast-16)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Federal Funds  cal Events (Values : Actual- -25, Prior-21 Forecast-24)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Federal Funds  cal Events (Values : Actual- -20, Prior-21 Forecast-24)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Existing Home sales  cal Events (Values : Actual- -12 Prior-12 Forecast-12)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Existing Home sales  cal Events (Values : Actual- -10 Prior-12 Forecast-12)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Existing Home sales  cal Events (Values : Actual- -24  Prior-13 Forecast-14)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Pending Home Sales Index  cal Events (Values : Actual- -25  Prior-25 Forecast-25)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Pending Home Sales Index  cal Events (Values : Actual- -21  Prior-22 Forecast-23)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Pending Home Sales Index  cal Events (Values : Actual- -26 Prior-22 Forecast-23)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Treasury Budget, USD  cal Events (Values : Actual- -25 Prior-25 Forecast-25)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Treasury Budget, USD  cal Events (Values : Actual- -25 Prior-21 Forecast-23)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Treasury Budget, USD  cal Events (Values : Actual- --1 Prior-2 Forecast-3)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Treasury Budget, USD  cal Events (Values : Actual- --1 Prior-2 Forecast-1)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Job less claims cal Events (Values : Actual- --25 Prior-25 Forecast-25)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Job less claims cal Events (Values : Actual- --21 Prior-22 Forecast-24)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Job less claims cal Events (Values : Actual- --25 Prior-22 Forecast-24)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Empoyee Report cal Events (Values : Actual- --0 Prior-12 Forecast-16)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Empoyee Report cal Events (Values : Actual- --14 Prior-12 Forecast-16)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Empoyee Report cal Events (Values : Actual- --3 Prior-1 Forecast-- -0.87)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Productivity final cal Events (Values : Actual- --0 Prior- 5 Forecast-0)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Productivity final cal Events (Values : Actual- --24 Prior- 2 Forecast 24)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Productivity final cal Events (Values : Actual- --26  Prior- 23 Forecast 25)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for  Productivity final cal Events (Values : Actual- --0.98  Prior- 5 Forecast 1)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to generate Alert for Business Eventories calender Events (Values : Actual-1, Prior-2 Forecast-4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Scirpt  is to create  multiple copies of a story and verify that it is saved properly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Scirpt  is to create  multiple copies of a Alert and verify that it is saved properly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Scirpt  is to create  multiple copies of a ECON and verify that it is saved properly
+</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with  Story, and create multiple copies and verify that all the copies are saved</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with  Alert, and create multiple copies and verify that all the copies are saved</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with  Econ, and create multiple copies   and verify that all the copies  are saved</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with  Stories, Alerts, and create multiple copies  and verify that all the copies  are saved</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with  Stories, Econs, and create multiple copies  and verify that all the copies  are saved</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with  Alerts, Econs, and create multiple copies  and verify that all the copies  are saved</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with  Stories,Alerts, Econs, and create multiple copies  and verify that all the copies  are saved</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Story and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Alert and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a New Econ and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Package with a Story and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Package with a Alert and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Package with a Econ and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Package with a Story and Alert and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Package with a Story and Econs and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a Package with a Alert and Econs and Save as Template, Recreate the same in work  space and ensure that its values are saved.</t>
+  </si>
+  <si>
+    <t>To Verify whether pubish button exists for a user having  admin rights when the asset is Alert</t>
+  </si>
+  <si>
+    <t>To Verify whether pubish button exists for a user having  admin rights when the asset is Story</t>
+  </si>
+  <si>
+    <t>Aim of the script is to verify default language code selection in a Cylic Alert creation.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts , Econs and Queue the same.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Queue and unqueue the same.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple alerts, Queue and unqueue the same.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Econs, Queue and Unqueue the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Alerts, Queue and Unqueue the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Econs, Queue and Unqueue the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts , Econs, Queue and Unqueue the same.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories,Alerts , Econs, Queue and Unqueue the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Queue and Send Now the same.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple alerts, Queue and Send Now the same.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Econs, Queue and Send Now the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Alerts, Queue and Send Now the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories , Econs, Queue and Send Now the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts , Econs, Queue and Send Now the same.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Stories,Alerts , Econs, Queue and Send Now the same</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Create a  Bundle with Multiple Alerts , Econs, Queue and Unqueue the individual asset.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - TRUE, ACS - TRUE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - TRUE, ACS - TRUE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - TRUE, ACS - TRUE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - TRUE, ACS - TRUE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - TRUE, ACS - TRUE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - TRUE, ACS - TRUE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - TRUE, ACS - TRUE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - TRUE, ACS - TRUE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - TRUE, ACS - TRUE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - TRUE, ACS - TRUE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - TRUE, ACS - TRUE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - TRUE, ACS - TRUE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - TRUE, ACS - TRUE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - TRUE, ACS - TRUE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - TRUE, ACS - TRUE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - FALSE, ACS - FALSE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - FALSE, ACS - FALSE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - FALSE, ACS - FALSE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - FALSE, ACS - FALSE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with LNM - FALSE, ACS - FALSE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - FALSE, ACS - FALSE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - FALSE, ACS - FALSE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - FALSE, ACS - FALSE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - FALSE, ACS - FALSE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with LNM - FALSE, ACS - FALSE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - FALSE, ACS - FALSE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - FALSE, ACS - FALSE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - FALSE, ACS - FALSE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - FALSE, ACS - FALSE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with LNM - FALSE, ACS - FALSE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - TRUE &amp; LNM - FALSE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - TRUE, LNM - FALSE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - TRUE, LNF - FALSE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - TRUE, LNF - FALSE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - TRUE, LNF - FALSE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - TRUE, LNF - FALSE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - TRUE, LNF - FALSE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - TRUE,  LNF - FALSE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - TRUE, LNF - FALSE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - TRUE, LNF - FALSE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - TRUE, LNF - FALSE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - TRUE, LNF - FALSE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - TRUE, LNF - FALSE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - TRUE, LNF - FALSE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - TRUE, LNF - FALSE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - FALSE &amp; LNM - TRUE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - FALSE, LNF - TRUE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - FALSE, LNF - TRUE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - FALSE, LNF - TRUE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for Japanese Language with ACS - FALSE, LNF - TRUE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - FALSE, LNF - TRUE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - FALSE, LNF - TRUE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - FALSE,  LNF - TRUE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - FALSE, LNF - TRUE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for English Language with ACS - FALSE, LNF - TRUE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - FALSE, LNF - TRUE and Single Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - FALSE, LNF - TRUE and K Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - FALSE, LNF - TRUE and MLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - FALSE, LNF - TRUE and BLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Company Data Number formatting for French Language with ACS - FALSE, LNF - TRUE and TRLN Units</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for English Language with ARE - FALSE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for French Language with ARE - FALSE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Japanese Language with ARE - FALSE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for English Language with ARE - TRUE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for French Language with ARE - TRUE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Japanese Language with ARE - TRUE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Chinese Language with ARE - TRUE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for English Language with ARE - FALSE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for French Language with ARE - FALSE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Japanese Language with ARE - FALSE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for English Language with ARE - TRUE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for French Language with ARE - TRUE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Japanese Language with ARE - TRUE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Chinese Language with ARE - TRUE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>LA_UI_0001</t>
+  </si>
+  <si>
+    <t>LA_UI_0002</t>
+  </si>
+  <si>
+    <t>LA_UI_0003</t>
+  </si>
+  <si>
+    <t>LA_UI_0004</t>
+  </si>
+  <si>
+    <t>LA_UI_0005</t>
+  </si>
+  <si>
+    <t>LA_UI_0006</t>
+  </si>
+  <si>
+    <t>LA_UI_0007</t>
+  </si>
+  <si>
+    <t>LA_UI_0008</t>
+  </si>
+  <si>
+    <t>LA_UI_0009</t>
+  </si>
+  <si>
+    <t>LA_UI_0010</t>
+  </si>
+  <si>
+    <t>LA_UI_0011</t>
+  </si>
+  <si>
+    <t>LA_UI_0012</t>
+  </si>
+  <si>
+    <t>LA_UI_0013</t>
+  </si>
+  <si>
+    <t>LA_UI_0014</t>
+  </si>
+  <si>
+    <t>LA_UI_0015</t>
+  </si>
+  <si>
+    <t>LA_UI_0016</t>
+  </si>
+  <si>
+    <t>LA_UI_0017</t>
+  </si>
+  <si>
+    <t>LA_UI_0018</t>
+  </si>
+  <si>
+    <t>LA_UI_0019</t>
+  </si>
+  <si>
+    <t>LA_UI_0020</t>
+  </si>
+  <si>
+    <t>LA_UI_0021</t>
+  </si>
+  <si>
+    <t>LA_UI_0022</t>
+  </si>
+  <si>
+    <t>LA_UI_0023</t>
+  </si>
+  <si>
+    <t>LA_UI_0024</t>
+  </si>
+  <si>
+    <t>LA_UI_0025</t>
+  </si>
+  <si>
+    <t>LA_UI_0026</t>
+  </si>
+  <si>
+    <t>LA_UI_0027</t>
+  </si>
+  <si>
+    <t>LA_UI_0028</t>
+  </si>
+  <si>
+    <t>LA_UI_0029</t>
+  </si>
+  <si>
+    <t>LA_UI_0030</t>
+  </si>
+  <si>
+    <t>LA_UI_0031</t>
+  </si>
+  <si>
+    <t>LA_UI_0032</t>
+  </si>
+  <si>
+    <t>LA_UI_0033</t>
+  </si>
+  <si>
+    <t>LA_UI_0034</t>
+  </si>
+  <si>
+    <t>LA_UI_0035</t>
+  </si>
+  <si>
+    <t>LA_UI_0036</t>
+  </si>
+  <si>
+    <t>LA_UI_0037</t>
+  </si>
+  <si>
+    <t>LA_UI_0038</t>
+  </si>
+  <si>
+    <t>LA_UI_0039</t>
+  </si>
+  <si>
+    <t>LA_UI_0040</t>
+  </si>
+  <si>
+    <t>LA_UI_0041</t>
+  </si>
+  <si>
+    <t>LA_UI_0042</t>
+  </si>
+  <si>
+    <t>LA_UI_0043</t>
+  </si>
+  <si>
+    <t>LA_UI_0044</t>
+  </si>
+  <si>
+    <t>LA_UI_0045</t>
+  </si>
+  <si>
+    <t>LA_UI_0046</t>
+  </si>
+  <si>
+    <t>LA_UI_0047</t>
+  </si>
+  <si>
+    <t>LA_UI_0048</t>
+  </si>
+  <si>
+    <t>LA_UI_0049</t>
+  </si>
+  <si>
+    <t>LA_UI_0050</t>
+  </si>
+  <si>
+    <t>LA_UI_0051</t>
+  </si>
+  <si>
+    <t>LA_UI_0052</t>
+  </si>
+  <si>
+    <t>LA_UI_0053</t>
+  </si>
+  <si>
+    <t>LA_UI_0054</t>
+  </si>
+  <si>
+    <t>LA_UI_0055</t>
+  </si>
+  <si>
+    <t>LA_UI_0056</t>
+  </si>
+  <si>
+    <t>LA_UI_0057</t>
+  </si>
+  <si>
+    <t>LA_UI_0058</t>
+  </si>
+  <si>
+    <t>LA_UI_0059</t>
+  </si>
+  <si>
+    <t>LA_UI_0060</t>
+  </si>
+  <si>
+    <t>LA_UI_0061</t>
+  </si>
+  <si>
+    <t>LA_UI_0062</t>
+  </si>
+  <si>
+    <t>LA_UI_0063</t>
+  </si>
+  <si>
+    <t>LA_UI_0064</t>
+  </si>
+  <si>
+    <t>LA_UI_0065</t>
+  </si>
+  <si>
+    <t>LA_UI_0066</t>
+  </si>
+  <si>
+    <t>LA_UI_0067</t>
+  </si>
+  <si>
+    <t>LA_UI_0068</t>
+  </si>
+  <si>
+    <t>LA_UI_0069</t>
+  </si>
+  <si>
+    <t>LA_UI_0070</t>
+  </si>
+  <si>
+    <t>LA_UI_0071</t>
+  </si>
+  <si>
+    <t>LA_UI_0072</t>
+  </si>
+  <si>
+    <t>LA_UI_0073</t>
+  </si>
+  <si>
+    <t>LA_UI_0074</t>
+  </si>
+  <si>
+    <t>LA_UI_0075</t>
+  </si>
+  <si>
+    <t>LA_UI_0076</t>
+  </si>
+  <si>
+    <t>LA_UI_0077</t>
+  </si>
+  <si>
+    <t>LA_UI_0078</t>
+  </si>
+  <si>
+    <t>LA_UI_0079</t>
+  </si>
+  <si>
+    <t>LA_UI_0080</t>
+  </si>
+  <si>
+    <t>LA_UI_0081</t>
+  </si>
+  <si>
+    <t>LA_UI_0082</t>
+  </si>
+  <si>
+    <t>LA_UI_0083</t>
+  </si>
+  <si>
+    <t>LA_UI_0084</t>
+  </si>
+  <si>
+    <t>LA_UI_0085</t>
+  </si>
+  <si>
+    <t>LA_UI_0086</t>
+  </si>
+  <si>
+    <t>LA_UI_0087</t>
+  </si>
+  <si>
+    <t>LA_UI_0088</t>
+  </si>
+  <si>
+    <t>LA_UI_0089</t>
+  </si>
+  <si>
+    <t>LA_UI_0090</t>
+  </si>
+  <si>
+    <t>LA_UI_0091</t>
+  </si>
+  <si>
+    <t>LA_UI_0092</t>
+  </si>
+  <si>
+    <t>LA_UI_0093</t>
+  </si>
+  <si>
+    <t>LA_UI_0094</t>
+  </si>
+  <si>
+    <t>LA_UI_0095</t>
+  </si>
+  <si>
+    <t>LA_UI_0096</t>
+  </si>
+  <si>
+    <t>LA_UI_0097</t>
+  </si>
+  <si>
+    <t>LA_UI_0098</t>
+  </si>
+  <si>
+    <t>LA_UI_0099</t>
+  </si>
+  <si>
+    <t>LA_UI_0100</t>
+  </si>
+  <si>
+    <t>LA_UI_0101</t>
+  </si>
+  <si>
+    <t>LA_UI_0102</t>
+  </si>
+  <si>
+    <t>LA_UI_0103</t>
+  </si>
+  <si>
+    <t>LA_UI_0104</t>
+  </si>
+  <si>
+    <t>LA_UI_0105</t>
+  </si>
+  <si>
+    <t>LA_UI_0106</t>
+  </si>
+  <si>
+    <t>LA_UI_0107</t>
+  </si>
+  <si>
+    <t>LA_UI_0108</t>
+  </si>
+  <si>
+    <t>LA_UI_0109</t>
+  </si>
+  <si>
+    <t>LA_UI_0110</t>
+  </si>
+  <si>
+    <t>LA_UI_0111</t>
+  </si>
+  <si>
+    <t>LA_UI_0112</t>
+  </si>
+  <si>
+    <t>LA_UI_0113</t>
+  </si>
+  <si>
+    <t>LA_UI_0114</t>
+  </si>
+  <si>
+    <t>LA_UI_0115</t>
+  </si>
+  <si>
+    <t>LA_UI_0116</t>
+  </si>
+  <si>
+    <t>LA_UI_0117</t>
+  </si>
+  <si>
+    <t>LA_UI_0118</t>
+  </si>
+  <si>
+    <t>LA_UI_0119</t>
+  </si>
+  <si>
+    <t>LA_UI_0120</t>
+  </si>
+  <si>
+    <t>LA_UI_0121</t>
+  </si>
+  <si>
+    <t>LA_UI_0122</t>
+  </si>
+  <si>
+    <t>LA_UI_0123</t>
+  </si>
+  <si>
+    <t>LA_UI_0124</t>
+  </si>
+  <si>
+    <t>LA_UI_0125</t>
+  </si>
+  <si>
+    <t>LA_UI_0126</t>
+  </si>
+  <si>
+    <t>LA_UI_0127</t>
+  </si>
+  <si>
+    <t>LA_UI_0128</t>
+  </si>
+  <si>
+    <t>LA_UI_0129</t>
+  </si>
+  <si>
+    <t>LA_UI_0130</t>
+  </si>
+  <si>
+    <t>LA_UI_0131</t>
+  </si>
+  <si>
+    <t>LA_UI_0132</t>
+  </si>
+  <si>
+    <t>LA_UI_0133</t>
+  </si>
+  <si>
+    <t>LA_UI_0134</t>
+  </si>
+  <si>
+    <t>LA_UI_0135</t>
+  </si>
+  <si>
+    <t>LA_UI_0136</t>
+  </si>
+  <si>
+    <t>LA_UI_0137</t>
+  </si>
+  <si>
+    <t>LA_UI_0138</t>
+  </si>
+  <si>
+    <t>LA_UI_0139</t>
+  </si>
+  <si>
+    <t>LA_UI_0140</t>
+  </si>
+  <si>
+    <t>LA_UI_0141</t>
+  </si>
+  <si>
+    <t>LA_UI_0142</t>
+  </si>
+  <si>
+    <t>LA_UI_0143</t>
+  </si>
+  <si>
+    <t>LA_UI_0144</t>
+  </si>
+  <si>
+    <t>LA_UI_0145</t>
+  </si>
+  <si>
+    <t>LA_UI_0146</t>
+  </si>
+  <si>
+    <t>LA_UI_0147</t>
+  </si>
+  <si>
+    <t>LA_UI_0148</t>
+  </si>
+  <si>
+    <t>LA_UI_0149</t>
+  </si>
+  <si>
+    <t>LA_UI_0150</t>
+  </si>
+  <si>
+    <t>LA_UI_0151</t>
+  </si>
+  <si>
+    <t>LA_UI_0152</t>
+  </si>
+  <si>
+    <t>LA_UI_0153</t>
+  </si>
+  <si>
+    <t>LA_UI_0154</t>
+  </si>
+  <si>
+    <t>LA_UI_0155</t>
+  </si>
+  <si>
+    <t>LA_UI_0156</t>
+  </si>
+  <si>
+    <t>LA_UI_0157</t>
+  </si>
+  <si>
+    <t>LA_UI_0158</t>
+  </si>
+  <si>
+    <t>LA_UI_0159</t>
+  </si>
+  <si>
+    <t>LA_UI_0160</t>
+  </si>
+  <si>
+    <t>LA_UI_0161</t>
+  </si>
+  <si>
+    <t>LA_UI_0162</t>
+  </si>
+  <si>
+    <t>LA_UI_0163</t>
+  </si>
+  <si>
+    <t>LA_UI_0164</t>
+  </si>
+  <si>
+    <t>LA_UI_0165</t>
+  </si>
+  <si>
+    <t>LA_UI_0166</t>
+  </si>
+  <si>
+    <t>LA_UI_0167</t>
+  </si>
+  <si>
+    <t>LA_UI_0168</t>
+  </si>
+  <si>
+    <t>LA_UI_0169</t>
+  </si>
+  <si>
+    <t>LA_UI_0170</t>
+  </si>
+  <si>
+    <t>LA_UI_0171</t>
+  </si>
+  <si>
+    <t>LA_UI_0172</t>
+  </si>
+  <si>
+    <t>LA_UI_0173</t>
+  </si>
+  <si>
+    <t>LA_UI_0174</t>
+  </si>
+  <si>
+    <t>LA_UI_0175</t>
+  </si>
+  <si>
+    <t>LA_UI_0176</t>
+  </si>
+  <si>
+    <t>LA_UI_0177</t>
+  </si>
+  <si>
+    <t>LA_UI_0178</t>
+  </si>
+  <si>
+    <t>LA_UI_0179</t>
+  </si>
+  <si>
+    <t>LA_UI_0180</t>
+  </si>
+  <si>
+    <t>LA_UI_0181</t>
+  </si>
+  <si>
+    <t>LA_UI_0182</t>
+  </si>
+  <si>
+    <t>LA_UI_0183</t>
+  </si>
+  <si>
+    <t>LA_UI_0184</t>
+  </si>
+  <si>
+    <t>LA_UI_0185</t>
+  </si>
+  <si>
+    <t>LA_UI_0186</t>
+  </si>
+  <si>
+    <t>LA_UI_0187</t>
+  </si>
+  <si>
+    <t>LA_UI_0188</t>
+  </si>
+  <si>
+    <t>LA_UI_0189</t>
+  </si>
+  <si>
+    <t>LA_UI_0190</t>
+  </si>
+  <si>
+    <t>LA_UI_0191</t>
+  </si>
+  <si>
+    <t>LA_UI_0192</t>
+  </si>
+  <si>
+    <t>LA_UI_0193</t>
+  </si>
+  <si>
+    <t>LA_UI_0194</t>
+  </si>
+  <si>
+    <t>LA_UI_0195</t>
+  </si>
+  <si>
+    <t>LA_UI_0196</t>
+  </si>
+  <si>
+    <t>LA_UI_0197</t>
+  </si>
+  <si>
+    <t>LA_UI_0198</t>
+  </si>
+  <si>
+    <t>LA_UI_0199</t>
+  </si>
+  <si>
+    <t>LA_UI_0200</t>
+  </si>
+  <si>
+    <t>LA_UI_0201</t>
+  </si>
+  <si>
+    <t>LA_UI_0202</t>
+  </si>
+  <si>
+    <t>LA_UI_0203</t>
+  </si>
+  <si>
+    <t>LA_UI_0204</t>
+  </si>
+  <si>
+    <t>LA_UI_0205</t>
+  </si>
+  <si>
+    <t>LA_UI_0206</t>
+  </si>
+  <si>
+    <t>LA_UI_0207</t>
+  </si>
+  <si>
+    <t>LA_UI_0208</t>
+  </si>
+  <si>
+    <t>LA_UI_0209</t>
+  </si>
+  <si>
+    <t>LA_UI_0210</t>
+  </si>
+  <si>
+    <t>LA_UI_0211</t>
+  </si>
+  <si>
+    <t>LA_UI_0212</t>
+  </si>
+  <si>
+    <t>LA_UI_0213</t>
+  </si>
+  <si>
+    <t>LA_UI_0214</t>
+  </si>
+  <si>
+    <t>LA_UI_0215</t>
+  </si>
+  <si>
+    <t>LA_UI_0216</t>
+  </si>
+  <si>
+    <t>LA_UI_0217</t>
+  </si>
+  <si>
+    <t>LA_UI_0218</t>
+  </si>
+  <si>
+    <t>LA_UI_0219</t>
+  </si>
+  <si>
+    <t>LA_UI_0220</t>
+  </si>
+  <si>
+    <t>LA_UI_0221</t>
+  </si>
+  <si>
+    <t>LA_UI_0222</t>
+  </si>
+  <si>
+    <t>LA_UI_0223</t>
+  </si>
+  <si>
+    <t>LA_UI_0224</t>
+  </si>
+  <si>
+    <t>LA_UI_0225</t>
+  </si>
+  <si>
+    <t>LA_UI_0226</t>
+  </si>
+  <si>
+    <t>LA_UI_0227</t>
+  </si>
+  <si>
+    <t>LA_UI_0228</t>
+  </si>
+  <si>
+    <t>LA_UI_0229</t>
+  </si>
+  <si>
+    <t>LA_UI_0230</t>
+  </si>
+  <si>
+    <t>LA_UI_0231</t>
+  </si>
+  <si>
+    <t>LA_UI_0232</t>
+  </si>
+  <si>
+    <t>LA_UI_0233</t>
+  </si>
+  <si>
+    <t>LA_UI_0234</t>
+  </si>
+  <si>
+    <t>LA_UI_0235</t>
+  </si>
+  <si>
+    <t>LA_UI_0236</t>
+  </si>
+  <si>
+    <t>LA_UI_0237</t>
+  </si>
+  <si>
+    <t>LA_UI_0238</t>
+  </si>
+  <si>
+    <t>LA_UI_0239</t>
+  </si>
+  <si>
+    <t>LA_UI_0240</t>
+  </si>
+  <si>
+    <t>LA_UI_0241</t>
+  </si>
+  <si>
+    <t>LA_UI_0242</t>
+  </si>
+  <si>
+    <t>LA_UI_0243</t>
+  </si>
+  <si>
+    <t>LA_UI_0244</t>
+  </si>
+  <si>
+    <t>LA_UI_0245</t>
+  </si>
+  <si>
+    <t>LA_UI_0246</t>
+  </si>
+  <si>
+    <t>LA_UI_0247</t>
+  </si>
+  <si>
+    <t>LA_UI_0248</t>
+  </si>
+  <si>
+    <t>LA_UI_0249</t>
+  </si>
+  <si>
+    <t>LA_UI_0250</t>
+  </si>
+  <si>
+    <t>LA_UI_0251</t>
+  </si>
+  <si>
+    <t>LA_UI_0252</t>
+  </si>
+  <si>
+    <t>LA_UI_0253</t>
+  </si>
+  <si>
+    <t>LA_UI_0254</t>
+  </si>
+  <si>
+    <t>LA_UI_0255</t>
+  </si>
+  <si>
+    <t>LA_UI_0256</t>
+  </si>
+  <si>
+    <t>LA_UI_0257</t>
+  </si>
+  <si>
+    <t>LA_UI_0258</t>
+  </si>
+  <si>
+    <t>LA_UI_0259</t>
+  </si>
+  <si>
+    <t>LA_UI_0260</t>
+  </si>
+  <si>
+    <t>LA_UI_0261</t>
+  </si>
+  <si>
+    <t>LA_UI_0262</t>
+  </si>
+  <si>
+    <t>LA_UI_0263</t>
+  </si>
+  <si>
+    <t>LA_UI_0264</t>
+  </si>
+  <si>
+    <t>LA_UI_0265</t>
+  </si>
+  <si>
+    <t>LA_UI_0266</t>
+  </si>
+  <si>
+    <t>LA_UI_0267</t>
+  </si>
+  <si>
+    <t>LA_UI_0268</t>
+  </si>
+  <si>
+    <t>LA_UI_0269</t>
+  </si>
+  <si>
+    <t>LA_UI_0270</t>
+  </si>
+  <si>
+    <t>LA_UI_0271</t>
+  </si>
+  <si>
+    <t>LA_UI_0272</t>
+  </si>
+  <si>
+    <t>LA_UI_0273</t>
+  </si>
+  <si>
+    <t>LA_UI_0274</t>
+  </si>
+  <si>
+    <t>LA_UI_0275</t>
+  </si>
+  <si>
+    <t>LA_UI_0276</t>
+  </si>
+  <si>
+    <t>LA_UI_0277</t>
+  </si>
+  <si>
+    <t>LA_UI_0278</t>
+  </si>
+  <si>
+    <t>LA_UI_0279</t>
+  </si>
+  <si>
+    <t>LA_UI_0280</t>
+  </si>
+  <si>
+    <t>LA_UI_0281</t>
+  </si>
+  <si>
+    <t>LA_UI_0282</t>
+  </si>
+  <si>
+    <t>LA_UI_0283</t>
+  </si>
+  <si>
+    <t>VerifyTemplateShortcutScenarios</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Invalid</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Existing</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  a   Story  and save the same as Template with existing key board short cuts and    ensure that Template is  saved</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Invalid</t>
+  </si>
+  <si>
+    <t>Econ,64424509456,7,5,NA,NA,NA,NA,NA,NA,Invalid</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Existing</t>
+  </si>
+  <si>
+    <t>Econ,64424509456,7,5,NA,NA,NA,NA,NA,NA,Existing</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an  Econ  and save it as Template with Existing short cut keys   and ensure that Template is  saved</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Alert  and save it as Template withExisting short cut keys    and ensure that Template is  saved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,6 +1929,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -148,7 +1949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -206,11 +2007,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -233,16 +2060,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,7 +2322,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F284" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -793,10 +2623,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -822,93 +2652,4491 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="D76" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
+      <c r="F76" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C172" s="9"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C191" s="9"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C193" s="9"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C194" s="9"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C195" s="9"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C198" s="9"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C201" s="9"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C202" s="9"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C204" s="9"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C205" s="9"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C206" s="9"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C210" s="9"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C213" s="9"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C218" s="9"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C219" s="9"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C220" s="9"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C221" s="9"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C222" s="9"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C223" s="9"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C224" s="9"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C225" s="9"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C226" s="9"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C227" s="9"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C228" s="9"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C230" s="9"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C231" s="9"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C232" s="9"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C233" s="9"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C234" s="9"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C235" s="9"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C238" s="9"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C239" s="9"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C240" s="9"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C241" s="9"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C242" s="9"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C243" s="9"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C244" s="9"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C245" s="9"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C246" s="9"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C247" s="9"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C248" s="9"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C249" s="9"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C250" s="9"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C251" s="9"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C252" s="9"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C253" s="9"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C254" s="9"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C256" s="9"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C257" s="9"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C259" s="9"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C260" s="9"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C262" s="9"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C263" s="9"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C264" s="9"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C265" s="9"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C266" s="9"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C267" s="9"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C268" s="9"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C269" s="9"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C270" s="9"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C271" s="9"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C272" s="9"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C273" s="9"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C274" s="9"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C275" s="9"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C276" s="9"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C277" s="9"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C278" s="9"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C279" s="9"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C281" s="9"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C282" s="9"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C283" s="9"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C284" s="8"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
+++ b/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\LA_Sikuli\LA_Sikuli\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583038F-063E-4968-AAA7-3771A8025D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D6D67C-EFC9-477D-BD30-0967D8BD7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="624">
   <si>
     <t>RunTest</t>
   </si>
@@ -1901,6 +1901,18 @@
   </si>
   <si>
     <t>Aim of the Scirpt  is to create  an Alert  and save it as Template withExisting short cut keys    and ensure that Template is  saved</t>
+  </si>
+  <si>
+    <t>VerifyAssetCopy</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Check</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Check</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Check</t>
   </si>
 </sst>
 </file>
@@ -2625,8 +2637,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:A95"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4543,7 +4555,7 @@
     </row>
     <row r="102" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>427</v>
@@ -4563,7 +4575,7 @@
     </row>
     <row r="103" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>428</v>
@@ -4583,7 +4595,7 @@
     </row>
     <row r="104" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>429</v>
@@ -4603,7 +4615,7 @@
     </row>
     <row r="105" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>430</v>
@@ -4623,7 +4635,7 @@
     </row>
     <row r="106" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>431</v>
@@ -4643,7 +4655,7 @@
     </row>
     <row r="107" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>432</v>
@@ -5139,42 +5151,60 @@
     </row>
     <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="10"/>
+      <c r="C142" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F142" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="10"/>
+      <c r="C143" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F143" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="10"/>
+      <c r="C144" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F144" s="11" t="s">
         <v>217</v>
       </c>

--- a/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
+++ b/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\LA_Sikuli\LA_Sikuli\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D6D67C-EFC9-477D-BD30-0967D8BD7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20D5FBD-5F9B-4678-AA27-094E35E22440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="655">
   <si>
     <t>RunTest</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Class Name</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Aim of the script is to Create a Multiple New Stories  and Publish the same</t>
   </si>
   <si>
@@ -567,17 +564,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Aim of the Scirpt  is to create  an Econ Data  with invalid values for all the fields   verify that Publish button is still disabled.</t>
-  </si>
-  <si>
-    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break and Ensure that  Publish Button is enabled
-' and verify that Publish button is still enabled.</t>
-  </si>
-  <si>
-    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break (Rev) and  Ensure that  Publish Button is enabled
-' and verify that Publish button is still enabled.</t>
-  </si>
-  <si>
-    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break (Actual and Rev) and Ensure that  Publish Button is enabled and verify that Publish button is still enabled.</t>
   </si>
   <si>
     <t>Aim of the Scirpt  is to create  a   Story  and save the same as Template with invalid key board short cuts and    ensure that Template should not be saved</t>
@@ -1913,6 +1899,111 @@
   </si>
   <si>
     <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Check</t>
+  </si>
+  <si>
+    <t>VerifyBundleCopy</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Story,TestStoryHeadline2,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,UNQUEUE</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Alert,TestAlertHeadline2,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,UNQUEUE</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Econ,64424509452,7,5,NA,NA,NA,NA,NA,NA,UNQUEUE</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,UNQUEUE</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,UNQUEUE</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,UNQUEUE</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Story,TestStoryHeadline2,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,SENDNOW</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Alert,TestAlertHeadline2,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,SENDNOW</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Econ,64424509452,7,5,NA,NA,NA,NA,NA,NA,SENDNOW</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,SENDNOW</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,SENDNOW</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,SENDNOW</t>
+  </si>
+  <si>
+    <t>VerifyQueueUnqueueSendNow</t>
+  </si>
+  <si>
+    <t>VerifyEconScenarios</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,0.0.0,5,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,Description</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,0.0.0,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,644245094516,7,5,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break and Ensure that  Publish Button is enabled</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break (Rev) and  Ensure that  Publish Button is enabled</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to create  an Econ Data  with Hand Break (Actual and Rev) and Ensure that  Publish Button is enabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,HandbrakeAR</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,5,NA,NA,NA,NA,NA,NA,HandbrakeR</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,1-,5,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,1-,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,2.,5,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,0..2,5,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,2-,5,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,2--0,5,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,0..2,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,2.,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,64424509451,7,2--0,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Econ,644245094516,1..0,2--0,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
   </si>
 </sst>
 </file>
@@ -2637,8 +2728,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:A144"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2646,7 +2737,7 @@
     <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="162.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="109" style="2" customWidth="1"/>
@@ -2675,4498 +2766,5122 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F52" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F54" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E71" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F78" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
+        <v>403</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F82" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
+        <v>404</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F83" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
+        <v>405</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F84" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="6"/>
+        <v>406</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F85" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
+        <v>407</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F86" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6"/>
+        <v>408</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F87" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
+        <v>409</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F88" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
+        <v>410</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F89" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
+        <v>411</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F90" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
+        <v>412</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F91" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="10"/>
+        <v>413</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F92" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="10"/>
+        <v>414</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F93" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="10"/>
+        <v>415</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F94" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="C99" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="C100" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="C101" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="11" t="s">
+      <c r="C102" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="11" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>614</v>
-      </c>
       <c r="E103" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="10"/>
+        <v>429</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F108" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="10"/>
+        <v>430</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F109" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="10"/>
+        <v>431</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F110" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="10"/>
+        <v>432</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F111" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="10"/>
+        <v>433</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F112" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="10"/>
+        <v>434</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F113" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="10"/>
+        <v>435</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F114" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="10"/>
+        <v>436</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F115" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="10"/>
+        <v>437</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F116" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="10"/>
+        <v>438</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F117" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="10"/>
+        <v>439</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F118" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="10"/>
+        <v>440</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F119" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="10"/>
+        <v>441</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F120" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="10"/>
+        <v>442</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F121" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="10"/>
+        <v>443</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F122" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="10"/>
+        <v>444</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F123" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="10"/>
+        <v>445</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F124" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="10"/>
+        <v>446</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F125" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="10"/>
+        <v>447</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F126" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="10"/>
+        <v>448</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F127" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="10"/>
+        <v>449</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F128" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="10"/>
+        <v>450</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F129" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="10"/>
+        <v>451</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F130" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="10"/>
+        <v>452</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F131" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="10"/>
+        <v>453</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F132" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="10"/>
+        <v>454</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F133" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="10"/>
+        <v>455</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F134" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="10"/>
+        <v>456</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F135" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="10"/>
+        <v>457</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F136" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="10"/>
+        <v>458</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F137" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="10"/>
+        <v>459</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F138" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="10"/>
+        <v>460</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F139" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="10"/>
+        <v>461</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F140" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>9</v>
+        <v>621</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="10"/>
+        <v>462</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>621</v>
+      </c>
       <c r="F141" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="10"/>
+        <v>466</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F145" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="10"/>
+        <v>467</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F146" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="10"/>
+        <v>468</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F147" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="10"/>
+        <v>469</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F148" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="10"/>
+        <v>470</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F149" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="10"/>
+        <v>471</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F150" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="10"/>
+        <v>472</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F151" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="4"/>
       <c r="E152" s="10"/>
       <c r="F152" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="4"/>
       <c r="E153" s="10"/>
       <c r="F153" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="4"/>
       <c r="E154" s="10"/>
       <c r="F154" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="4"/>
       <c r="E155" s="10"/>
       <c r="F155" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="4"/>
       <c r="E156" s="10"/>
       <c r="F156" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="4"/>
       <c r="E157" s="10"/>
       <c r="F157" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="4"/>
       <c r="E158" s="10"/>
       <c r="F158" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="4"/>
       <c r="E159" s="10"/>
       <c r="F159" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="4"/>
       <c r="E160" s="10"/>
       <c r="F160" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="4"/>
       <c r="E161" s="10"/>
       <c r="F161" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="4"/>
       <c r="E162" s="10"/>
       <c r="F162" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="4"/>
       <c r="E163" s="10"/>
       <c r="F163" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="4"/>
       <c r="E164" s="10"/>
       <c r="F164" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="10"/>
+        <v>486</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F165" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="10"/>
+        <v>487</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F166" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="10"/>
+        <v>488</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F167" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="10"/>
+        <v>489</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F168" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="10"/>
+        <v>490</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F169" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="10"/>
+        <v>491</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F170" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="10"/>
+        <v>492</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F171" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="10"/>
+        <v>493</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F172" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="10"/>
+        <v>494</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F173" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="10"/>
+        <v>495</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F174" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="10"/>
+        <v>496</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F175" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="10"/>
+        <v>497</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F176" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="10"/>
+        <v>498</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F177" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="10"/>
+        <v>499</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F178" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F179" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="10"/>
+        <v>501</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F180" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F181" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="10"/>
+        <v>503</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F182" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="10"/>
+        <v>504</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F183" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="10"/>
+        <v>505</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F184" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="10"/>
+        <v>506</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F185" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="10"/>
+        <v>507</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F186" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="10"/>
+        <v>508</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F187" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="4"/>
       <c r="E188" s="10"/>
       <c r="F188" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="4"/>
       <c r="E189" s="10"/>
       <c r="F189" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="4"/>
       <c r="E190" s="10"/>
       <c r="F190" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="4"/>
       <c r="E191" s="10"/>
       <c r="F191" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="4"/>
       <c r="E192" s="10"/>
       <c r="F192" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="4"/>
       <c r="E193" s="10"/>
       <c r="F193" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="4"/>
       <c r="E194" s="10"/>
       <c r="F194" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="4"/>
       <c r="E195" s="10"/>
       <c r="F195" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="4"/>
       <c r="E196" s="10"/>
       <c r="F196" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="4"/>
       <c r="E197" s="10"/>
       <c r="F197" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="4"/>
       <c r="E198" s="10"/>
       <c r="F198" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="4"/>
       <c r="E199" s="10"/>
       <c r="F199" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="4"/>
       <c r="E200" s="10"/>
       <c r="F200" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="4"/>
       <c r="E201" s="10"/>
       <c r="F201" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="4"/>
       <c r="E202" s="10"/>
       <c r="F202" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="4"/>
       <c r="E203" s="10"/>
       <c r="F203" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="4"/>
       <c r="E204" s="10"/>
       <c r="F204" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="4"/>
       <c r="E205" s="10"/>
       <c r="F205" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="4"/>
       <c r="E206" s="10"/>
       <c r="F206" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="4"/>
       <c r="E207" s="10"/>
       <c r="F207" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="4"/>
       <c r="E208" s="10"/>
       <c r="F208" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="4"/>
       <c r="E209" s="10"/>
       <c r="F209" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="4"/>
       <c r="E210" s="10"/>
       <c r="F210" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="4"/>
       <c r="E211" s="10"/>
       <c r="F211" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="4"/>
       <c r="E212" s="10"/>
       <c r="F212" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="4"/>
       <c r="E213" s="10"/>
       <c r="F213" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="4"/>
       <c r="E214" s="10"/>
       <c r="F214" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="4"/>
       <c r="E215" s="10"/>
       <c r="F215" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="4"/>
       <c r="E216" s="10"/>
       <c r="F216" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="4"/>
       <c r="E217" s="10"/>
       <c r="F217" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="4"/>
       <c r="E218" s="10"/>
       <c r="F218" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="4"/>
       <c r="E219" s="10"/>
       <c r="F219" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="4"/>
       <c r="E220" s="10"/>
       <c r="F220" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="4"/>
       <c r="E221" s="10"/>
       <c r="F221" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="4"/>
       <c r="E222" s="10"/>
       <c r="F222" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="4"/>
       <c r="E223" s="10"/>
       <c r="F223" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="4"/>
       <c r="E224" s="10"/>
       <c r="F224" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="4"/>
       <c r="E225" s="10"/>
       <c r="F225" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="4"/>
       <c r="E226" s="10"/>
       <c r="F226" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="4"/>
       <c r="E227" s="10"/>
       <c r="F227" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="4"/>
       <c r="E228" s="10"/>
       <c r="F228" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="4"/>
       <c r="E229" s="10"/>
       <c r="F229" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="4"/>
       <c r="E230" s="10"/>
       <c r="F230" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="4"/>
       <c r="E231" s="10"/>
       <c r="F231" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="4"/>
       <c r="E232" s="10"/>
       <c r="F232" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="4"/>
       <c r="E233" s="10"/>
       <c r="F233" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="4"/>
       <c r="E234" s="10"/>
       <c r="F234" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="4"/>
       <c r="E235" s="10"/>
       <c r="F235" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="4"/>
       <c r="E236" s="10"/>
       <c r="F236" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="4"/>
       <c r="E237" s="10"/>
       <c r="F237" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="4"/>
       <c r="E238" s="10"/>
       <c r="F238" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="4"/>
       <c r="E239" s="10"/>
       <c r="F239" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C240" s="9"/>
       <c r="D240" s="4"/>
       <c r="E240" s="10"/>
       <c r="F240" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C241" s="9"/>
       <c r="D241" s="4"/>
       <c r="E241" s="10"/>
       <c r="F241" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="4"/>
       <c r="E242" s="10"/>
       <c r="F242" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="4"/>
       <c r="E243" s="10"/>
       <c r="F243" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="4"/>
       <c r="E244" s="10"/>
       <c r="F244" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="4"/>
       <c r="E245" s="10"/>
       <c r="F245" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="4"/>
       <c r="E246" s="10"/>
       <c r="F246" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="4"/>
       <c r="E247" s="10"/>
       <c r="F247" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="C248" s="9"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="10"/>
+        <v>569</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F248" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C249" s="9"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="10"/>
+        <v>570</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F249" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="10"/>
+        <v>571</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F250" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="10"/>
+        <v>572</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F251" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="10"/>
+        <v>573</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F252" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="10"/>
+        <v>574</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F253" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C254" s="9"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="10"/>
+        <v>575</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F254" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="10"/>
+        <v>576</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F255" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C256" s="9"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="10"/>
+        <v>577</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F256" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="10"/>
+        <v>578</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F257" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C258" s="9"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="10"/>
+        <v>579</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F258" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="10"/>
+        <v>580</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F259" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C260" s="9"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="10"/>
+        <v>581</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F260" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C261" s="9"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="10"/>
+        <v>582</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F261" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="10"/>
+        <v>583</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F262" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C263" s="9"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="10"/>
+        <v>584</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F263" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="10"/>
+        <v>585</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F264" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C265" s="9"/>
-      <c r="D265" s="4"/>
-      <c r="E265" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F265" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="10"/>
+        <v>587</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F266" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C267" s="9"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="10"/>
+        <v>588</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F267" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="4"/>
       <c r="E268" s="10"/>
       <c r="F268" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="4"/>
       <c r="E269" s="10"/>
       <c r="F269" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="4"/>
       <c r="E270" s="10"/>
       <c r="F270" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="4"/>
       <c r="E271" s="10"/>
       <c r="F271" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="4"/>
       <c r="E272" s="10"/>
       <c r="F272" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="4"/>
       <c r="E273" s="10"/>
       <c r="F273" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="4"/>
       <c r="E274" s="10"/>
       <c r="F274" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="4"/>
       <c r="E275" s="10"/>
       <c r="F275" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="4"/>
       <c r="E276" s="10"/>
       <c r="F276" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="4"/>
       <c r="E277" s="10"/>
       <c r="F277" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="4"/>
       <c r="E278" s="10"/>
       <c r="F278" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="4"/>
       <c r="E279" s="10"/>
       <c r="F279" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="4"/>
       <c r="E280" s="10"/>
       <c r="F280" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="4"/>
       <c r="E281" s="10"/>
       <c r="F281" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C282" s="9"/>
       <c r="D282" s="4"/>
       <c r="E282" s="10"/>
       <c r="F282" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="4"/>
       <c r="E283" s="10"/>
       <c r="F283" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C284" s="8"/>
       <c r="D284" s="5"/>
       <c r="E284" s="6"/>
       <c r="F284" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
+++ b/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\LA_Sikuli\LA_Sikuli\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20D5FBD-5F9B-4678-AA27-094E35E22440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B30F9B8-F16C-40A0-86B1-FDA68EFEAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!#REF!</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="803">
   <si>
     <t>RunTest</t>
   </si>
@@ -2004,6 +2005,450 @@
   </si>
   <si>
     <t>Econ,644245094516,1..0,2--0,NA,NA,NA,NA,NA,NA,PublishDisabled</t>
+  </si>
+  <si>
+    <t>Story,TestStoryHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,TestStory,PublishEnabled</t>
+  </si>
+  <si>
+    <t>Alert,TestAlertHeadline1,Test,Test,TestMe,Test.V,Test,T,Taslic/,NA,PublishEnabled</t>
+  </si>
+  <si>
+    <t>VerifyTemplateRecreateScenarios</t>
+  </si>
+  <si>
+    <t>VerifyPackageTemplateRecreateScenarios</t>
+  </si>
+  <si>
+    <t>VerifyCompanyNumberFormatting</t>
+  </si>
+  <si>
+    <t>CompanyDataCases</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,SINGLE</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,K</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,MLN</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,BLN</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,TRLN</t>
+  </si>
+  <si>
+    <t>English,NO,NO,SINGLE</t>
+  </si>
+  <si>
+    <t>English,NO,NO,K</t>
+  </si>
+  <si>
+    <t>English,NO,NO,MLN</t>
+  </si>
+  <si>
+    <t>English,NO,NO,BLN</t>
+  </si>
+  <si>
+    <t>English,NO,NO,TRLN</t>
+  </si>
+  <si>
+    <t>French,NO,NO,SINGLE</t>
+  </si>
+  <si>
+    <t>French,NO,NO,K</t>
+  </si>
+  <si>
+    <t>French,NO,NO,MLN</t>
+  </si>
+  <si>
+    <t>French,NO,NO,BLN</t>
+  </si>
+  <si>
+    <t>French,NO,NO,TRLN</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,K</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,MLN</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,TRLN</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,BLN</t>
+  </si>
+  <si>
+    <t>English,YES,YES,SINGLE</t>
+  </si>
+  <si>
+    <t>English,YES,YES,K</t>
+  </si>
+  <si>
+    <t>English,YES,YES,MLN</t>
+  </si>
+  <si>
+    <t>English,YES,YES,BLN</t>
+  </si>
+  <si>
+    <t>English,YES,YES,TRLN</t>
+  </si>
+  <si>
+    <t>French,YES,YES,SINGLE</t>
+  </si>
+  <si>
+    <t>French,YES,YES,K</t>
+  </si>
+  <si>
+    <t>French,YES,YES,MLN</t>
+  </si>
+  <si>
+    <t>French,YES,YES,BLN</t>
+  </si>
+  <si>
+    <t>French,YES,YES,TRLN</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,SINGLE</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,K</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,MLN</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,BLN</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,TRLN</t>
+  </si>
+  <si>
+    <t>English,YES,NO,SINGLE</t>
+  </si>
+  <si>
+    <t>English,YES,NO,K</t>
+  </si>
+  <si>
+    <t>English,YES,NO,MLN</t>
+  </si>
+  <si>
+    <t>English,YES,NO,BLN</t>
+  </si>
+  <si>
+    <t>English,YES,NO,TRLN</t>
+  </si>
+  <si>
+    <t>French,YES,NO,SINGLE</t>
+  </si>
+  <si>
+    <t>French,YES,NO,K</t>
+  </si>
+  <si>
+    <t>French,YES,NO,MLN</t>
+  </si>
+  <si>
+    <t>French,YES,NO,BLN</t>
+  </si>
+  <si>
+    <t>French,YES,NO,TRLN</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,SINGLE</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,K</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,MLN</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,BLN</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,TRLN</t>
+  </si>
+  <si>
+    <t>English,NO,YES,SINGLE</t>
+  </si>
+  <si>
+    <t>English,NO,YES,K</t>
+  </si>
+  <si>
+    <t>English,NO,YES,MLN</t>
+  </si>
+  <si>
+    <t>English,NO,YES,BLN</t>
+  </si>
+  <si>
+    <t>English,NO,YES,TRLN</t>
+  </si>
+  <si>
+    <t>French,NO,YES,SINGLE</t>
+  </si>
+  <si>
+    <t>French,NO,YES,K</t>
+  </si>
+  <si>
+    <t>French,NO,YES,MLN</t>
+  </si>
+  <si>
+    <t>French,NO,YES,BLN</t>
+  </si>
+  <si>
+    <t>French,NO,YES,TRLN</t>
+  </si>
+  <si>
+    <t>DESCR</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,YES,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,YES,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,YES,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,YES,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,YES,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,YES,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,YES,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,YES,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,YES,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,YES,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,NO,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,NO,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,NO,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,NO,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,NO,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,NO,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,NO,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,NO,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,NO,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,NO,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,NO,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,NO,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,NO,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,NO,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,YES,NO,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,NO,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,NO,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,NO,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,NO,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,YES,NO,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,YES,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,YES,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,YES,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,YES,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>English,NO,YES,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,YES,SINGLE,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,YES,K,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,YES,MLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,YES,BLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>French,NO,YES,TRLN,DESCR,1234567,2.0,3.8897</t>
+  </si>
+  <si>
+    <t>EconDataCases</t>
+  </si>
+  <si>
+    <t>VerifyEconDataFormatting</t>
+  </si>
+  <si>
+    <t>English,NO,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>French,NO,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Japanese,NO,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Chinese Language with ARE - FALSE and LNF - FALSE</t>
+  </si>
+  <si>
+    <t>Aim of the script is to Verify Auto Round Econ Data for Chinese Language with ARE - FALSE and LNF - TRUE</t>
+  </si>
+  <si>
+    <t>Chinese,NO,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>English,YES,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>French,YES,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Japanese,YES,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Chinese,YES,YES,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>English,NO,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>French,NO,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Japanese,NO,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Chinese,NO,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>English,YES,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>French,YES,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Japanese,YES,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>Chinese,YES,NO,64424509450,4.567,+2.1</t>
+  </si>
+  <si>
+    <t>VerifyCyclicAlertLanguage</t>
+  </si>
+  <si>
+    <t>Chinese,TESTALERTHEADLINECyclical,TEST,TEST,TESTME,TEST.V,TEST</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2483,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2048,6 +2493,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,7 +2597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2177,6 +2634,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,8 +3212,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2739,8 +3223,8 @@
     <col min="3" max="3" width="31.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="40.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="162.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="109" style="2" customWidth="1"/>
+    <col min="6" max="6" width="106.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4885,682 +5369,682 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="A108" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B108" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F108" s="11" t="s">
+      <c r="C108" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F108" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B109" s="4" t="s">
+      <c r="A109" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F109" s="11" t="s">
+      <c r="C109" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F109" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F110" s="11" t="s">
+      <c r="C110" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F110" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B111" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F111" s="11" t="s">
+      <c r="C111" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F111" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F112" s="11" t="s">
+      <c r="C112" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F112" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="A113" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B113" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F113" s="11" t="s">
+      <c r="C113" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F113" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B114" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F114" s="11" t="s">
+      <c r="C114" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F114" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="A115" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F115" s="11" t="s">
+      <c r="C115" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F115" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="A116" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F116" s="11" t="s">
+      <c r="C116" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F116" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="A117" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B117" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F117" s="11" t="s">
+      <c r="C117" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F117" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="A118" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B118" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F118" s="11" t="s">
+      <c r="C118" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B119" s="4" t="s">
+      <c r="A119" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B119" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F119" s="11" t="s">
+      <c r="C119" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F119" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="A120" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B120" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F120" s="11" t="s">
+      <c r="C120" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F120" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B121" s="4" t="s">
+      <c r="A121" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B121" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F121" s="11" t="s">
+      <c r="C121" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F121" s="14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="A122" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B122" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="C122" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F122" s="11" t="s">
+      <c r="C122" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F122" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B123" s="4" t="s">
+      <c r="A123" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F123" s="11" t="s">
+      <c r="C123" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B124" s="4" t="s">
+      <c r="A124" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B124" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F124" s="11" t="s">
+      <c r="C124" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F124" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B125" s="4" t="s">
+      <c r="A125" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B125" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F125" s="11" t="s">
+      <c r="C125" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F125" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B126" s="4" t="s">
+      <c r="A126" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B126" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="C126" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F126" s="11" t="s">
+      <c r="C126" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F126" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B127" s="4" t="s">
+      <c r="A127" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B127" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F127" s="11" t="s">
+      <c r="C127" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F127" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B128" s="4" t="s">
+      <c r="A128" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B128" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F128" s="11" t="s">
+      <c r="C128" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F128" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="A129" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F129" s="11" t="s">
+      <c r="C129" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F129" s="14" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B130" s="4" t="s">
+      <c r="A130" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B130" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="C130" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F130" s="11" t="s">
+      <c r="C130" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F130" s="14" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="A131" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B131" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F131" s="11" t="s">
+      <c r="C131" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F131" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B132" s="4" t="s">
+      <c r="A132" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B132" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F132" s="11" t="s">
+      <c r="C132" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F132" s="14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="A133" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B133" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F133" s="11" t="s">
+      <c r="C133" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F133" s="14" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B134" s="4" t="s">
+      <c r="A134" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B134" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F134" s="11" t="s">
+      <c r="C134" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="A135" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B135" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F135" s="11" t="s">
+      <c r="C135" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F135" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B136" s="4" t="s">
+      <c r="A136" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F136" s="11" t="s">
+      <c r="C136" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F136" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F137" s="11" t="s">
+      <c r="C137" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F137" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="A138" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B138" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F138" s="11" t="s">
+      <c r="C138" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F138" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F139" s="11" t="s">
+      <c r="C139" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F139" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B140" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F140" s="11" t="s">
+      <c r="C140" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F140" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="A141" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B141" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C141" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F141" s="11" t="s">
+      <c r="C141" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F141" s="14" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5771,9 +6255,15 @@
       <c r="B152" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="10"/>
+      <c r="C152" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F152" s="11" t="s">
         <v>221</v>
       </c>
@@ -5785,9 +6275,15 @@
       <c r="B153" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="10"/>
+      <c r="C153" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F153" s="11" t="s">
         <v>222</v>
       </c>
@@ -5799,9 +6295,15 @@
       <c r="B154" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="10"/>
+      <c r="C154" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F154" s="11" t="s">
         <v>223</v>
       </c>
@@ -5813,9 +6315,15 @@
       <c r="B155" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="10"/>
+      <c r="C155" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F155" s="11" t="s">
         <v>224</v>
       </c>
@@ -5827,9 +6335,15 @@
       <c r="B156" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="10"/>
+      <c r="C156" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F156" s="11" t="s">
         <v>225</v>
       </c>
@@ -5841,9 +6355,15 @@
       <c r="B157" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="10"/>
+      <c r="C157" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F157" s="11" t="s">
         <v>226</v>
       </c>
@@ -5855,9 +6375,15 @@
       <c r="B158" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="10"/>
+      <c r="C158" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F158" s="11" t="s">
         <v>227</v>
       </c>
@@ -5869,9 +6395,15 @@
       <c r="B159" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="10"/>
+      <c r="C159" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F159" s="11" t="s">
         <v>228</v>
       </c>
@@ -5883,9 +6415,15 @@
       <c r="B160" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="10"/>
+      <c r="C160" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F160" s="11" t="s">
         <v>229</v>
       </c>
@@ -5897,9 +6435,15 @@
       <c r="B161" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="10"/>
+      <c r="C161" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F161" s="11" t="s">
         <v>229</v>
       </c>
@@ -5911,9 +6455,15 @@
       <c r="B162" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="10"/>
+      <c r="C162" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F162" s="11" t="s">
         <v>230</v>
       </c>
@@ -5925,24 +6475,36 @@
       <c r="B163" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="10"/>
+      <c r="C163" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F163" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="4" t="s">
+    <row r="164" spans="1:6" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="11" t="s">
+      <c r="C164" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="20" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6413,9 +6975,15 @@
       <c r="B188" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="10"/>
+      <c r="C188" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F188" s="11" t="s">
         <v>249</v>
       </c>
@@ -6427,9 +6995,15 @@
       <c r="B189" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="10"/>
+      <c r="C189" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F189" s="11" t="s">
         <v>250</v>
       </c>
@@ -6441,9 +7015,15 @@
       <c r="B190" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="10"/>
+      <c r="C190" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F190" s="11" t="s">
         <v>251</v>
       </c>
@@ -6455,9 +7035,15 @@
       <c r="B191" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="10"/>
+      <c r="C191" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F191" s="11" t="s">
         <v>252</v>
       </c>
@@ -6469,9 +7055,15 @@
       <c r="B192" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="10"/>
+      <c r="C192" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F192" s="11" t="s">
         <v>253</v>
       </c>
@@ -6483,9 +7075,15 @@
       <c r="B193" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="10"/>
+      <c r="C193" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F193" s="11" t="s">
         <v>254</v>
       </c>
@@ -6497,9 +7095,15 @@
       <c r="B194" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C194" s="9"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="10"/>
+      <c r="C194" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F194" s="11" t="s">
         <v>255</v>
       </c>
@@ -6511,9 +7115,15 @@
       <c r="B195" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="10"/>
+      <c r="C195" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F195" s="11" t="s">
         <v>256</v>
       </c>
@@ -6525,9 +7135,15 @@
       <c r="B196" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="10"/>
+      <c r="C196" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F196" s="11" t="s">
         <v>257</v>
       </c>
@@ -6539,9 +7155,15 @@
       <c r="B197" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="10"/>
+      <c r="C197" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E197" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F197" s="11" t="s">
         <v>258</v>
       </c>
@@ -6553,9 +7175,15 @@
       <c r="B198" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="10"/>
+      <c r="C198" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F198" s="11" t="s">
         <v>259</v>
       </c>
@@ -6567,9 +7195,15 @@
       <c r="B199" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C199" s="9"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="10"/>
+      <c r="C199" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F199" s="11" t="s">
         <v>260</v>
       </c>
@@ -6581,9 +7215,15 @@
       <c r="B200" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C200" s="9"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="10"/>
+      <c r="C200" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F200" s="11" t="s">
         <v>261</v>
       </c>
@@ -6595,9 +7235,15 @@
       <c r="B201" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C201" s="9"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="10"/>
+      <c r="C201" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F201" s="11" t="s">
         <v>262</v>
       </c>
@@ -6609,9 +7255,15 @@
       <c r="B202" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C202" s="9"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="10"/>
+      <c r="C202" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F202" s="11" t="s">
         <v>263</v>
       </c>
@@ -6623,9 +7275,15 @@
       <c r="B203" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C203" s="9"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="10"/>
+      <c r="C203" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F203" s="11" t="s">
         <v>264</v>
       </c>
@@ -6637,9 +7295,15 @@
       <c r="B204" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="10"/>
+      <c r="C204" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F204" s="11" t="s">
         <v>265</v>
       </c>
@@ -6651,9 +7315,15 @@
       <c r="B205" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C205" s="9"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="10"/>
+      <c r="C205" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F205" s="11" t="s">
         <v>266</v>
       </c>
@@ -6665,9 +7335,15 @@
       <c r="B206" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C206" s="9"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="10"/>
+      <c r="C206" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F206" s="11" t="s">
         <v>267</v>
       </c>
@@ -6679,9 +7355,15 @@
       <c r="B207" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C207" s="9"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="10"/>
+      <c r="C207" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F207" s="11" t="s">
         <v>268</v>
       </c>
@@ -6693,9 +7375,15 @@
       <c r="B208" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="10"/>
+      <c r="C208" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F208" s="11" t="s">
         <v>269</v>
       </c>
@@ -6707,9 +7395,15 @@
       <c r="B209" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="10"/>
+      <c r="C209" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F209" s="11" t="s">
         <v>270</v>
       </c>
@@ -6721,9 +7415,15 @@
       <c r="B210" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="10"/>
+      <c r="C210" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F210" s="11" t="s">
         <v>271</v>
       </c>
@@ -6735,9 +7435,15 @@
       <c r="B211" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="10"/>
+      <c r="C211" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="E211" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F211" s="11" t="s">
         <v>272</v>
       </c>
@@ -6749,9 +7455,15 @@
       <c r="B212" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C212" s="9"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="10"/>
+      <c r="C212" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F212" s="11" t="s">
         <v>273</v>
       </c>
@@ -6763,9 +7475,15 @@
       <c r="B213" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="10"/>
+      <c r="C213" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F213" s="11" t="s">
         <v>274</v>
       </c>
@@ -6777,9 +7495,15 @@
       <c r="B214" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="10"/>
+      <c r="C214" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F214" s="11" t="s">
         <v>275</v>
       </c>
@@ -6791,9 +7515,15 @@
       <c r="B215" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="10"/>
+      <c r="C215" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F215" s="11" t="s">
         <v>276</v>
       </c>
@@ -6805,9 +7535,15 @@
       <c r="B216" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="10"/>
+      <c r="C216" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F216" s="11" t="s">
         <v>277</v>
       </c>
@@ -6819,9 +7555,15 @@
       <c r="B217" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="10"/>
+      <c r="C217" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F217" s="11" t="s">
         <v>278</v>
       </c>
@@ -6833,9 +7575,15 @@
       <c r="B218" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="10"/>
+      <c r="C218" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F218" s="11" t="s">
         <v>279</v>
       </c>
@@ -6847,9 +7595,15 @@
       <c r="B219" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C219" s="9"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="10"/>
+      <c r="C219" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F219" s="11" t="s">
         <v>280</v>
       </c>
@@ -6861,9 +7615,15 @@
       <c r="B220" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="10"/>
+      <c r="C220" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F220" s="11" t="s">
         <v>281</v>
       </c>
@@ -6875,9 +7635,15 @@
       <c r="B221" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="10"/>
+      <c r="C221" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F221" s="11" t="s">
         <v>282</v>
       </c>
@@ -6889,9 +7655,15 @@
       <c r="B222" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="10"/>
+      <c r="C222" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F222" s="11" t="s">
         <v>283</v>
       </c>
@@ -6903,9 +7675,15 @@
       <c r="B223" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="10"/>
+      <c r="C223" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F223" s="11" t="s">
         <v>284</v>
       </c>
@@ -6917,9 +7695,15 @@
       <c r="B224" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C224" s="9"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="10"/>
+      <c r="C224" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F224" s="11" t="s">
         <v>285</v>
       </c>
@@ -6931,9 +7715,15 @@
       <c r="B225" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="10"/>
+      <c r="C225" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F225" s="11" t="s">
         <v>286</v>
       </c>
@@ -6945,9 +7735,15 @@
       <c r="B226" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="10"/>
+      <c r="C226" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F226" s="11" t="s">
         <v>287</v>
       </c>
@@ -6959,9 +7755,15 @@
       <c r="B227" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C227" s="9"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="10"/>
+      <c r="C227" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F227" s="11" t="s">
         <v>288</v>
       </c>
@@ -6973,9 +7775,15 @@
       <c r="B228" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C228" s="9"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="10"/>
+      <c r="C228" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="E228" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F228" s="11" t="s">
         <v>289</v>
       </c>
@@ -6987,9 +7795,15 @@
       <c r="B229" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C229" s="9"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="10"/>
+      <c r="C229" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F229" s="11" t="s">
         <v>290</v>
       </c>
@@ -7001,9 +7815,15 @@
       <c r="B230" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="10"/>
+      <c r="C230" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F230" s="11" t="s">
         <v>291</v>
       </c>
@@ -7015,9 +7835,15 @@
       <c r="B231" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C231" s="9"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="10"/>
+      <c r="C231" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F231" s="11" t="s">
         <v>292</v>
       </c>
@@ -7029,9 +7855,15 @@
       <c r="B232" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="10"/>
+      <c r="C232" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E232" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F232" s="11" t="s">
         <v>293</v>
       </c>
@@ -7043,9 +7875,15 @@
       <c r="B233" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C233" s="9"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="10"/>
+      <c r="C233" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F233" s="11" t="s">
         <v>294</v>
       </c>
@@ -7057,9 +7895,15 @@
       <c r="B234" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="10"/>
+      <c r="C234" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F234" s="11" t="s">
         <v>295</v>
       </c>
@@ -7071,9 +7915,15 @@
       <c r="B235" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C235" s="9"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="10"/>
+      <c r="C235" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F235" s="11" t="s">
         <v>296</v>
       </c>
@@ -7085,9 +7935,15 @@
       <c r="B236" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="10"/>
+      <c r="C236" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F236" s="11" t="s">
         <v>297</v>
       </c>
@@ -7099,9 +7955,15 @@
       <c r="B237" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C237" s="9"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="10"/>
+      <c r="C237" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F237" s="11" t="s">
         <v>298</v>
       </c>
@@ -7113,9 +7975,15 @@
       <c r="B238" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="10"/>
+      <c r="C238" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="E238" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F238" s="11" t="s">
         <v>299</v>
       </c>
@@ -7127,9 +7995,15 @@
       <c r="B239" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="10"/>
+      <c r="C239" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F239" s="11" t="s">
         <v>300</v>
       </c>
@@ -7141,9 +8015,15 @@
       <c r="B240" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="10"/>
+      <c r="C240" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F240" s="11" t="s">
         <v>301</v>
       </c>
@@ -7155,9 +8035,15 @@
       <c r="B241" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="10"/>
+      <c r="C241" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F241" s="11" t="s">
         <v>302</v>
       </c>
@@ -7169,9 +8055,15 @@
       <c r="B242" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C242" s="9"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="10"/>
+      <c r="C242" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F242" s="11" t="s">
         <v>303</v>
       </c>
@@ -7183,9 +8075,15 @@
       <c r="B243" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="10"/>
+      <c r="C243" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F243" s="11" t="s">
         <v>304</v>
       </c>
@@ -7197,9 +8095,15 @@
       <c r="B244" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C244" s="9"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="10"/>
+      <c r="C244" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F244" s="11" t="s">
         <v>305</v>
       </c>
@@ -7211,9 +8115,15 @@
       <c r="B245" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="10"/>
+      <c r="C245" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F245" s="11" t="s">
         <v>306</v>
       </c>
@@ -7225,9 +8135,15 @@
       <c r="B246" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C246" s="9"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="10"/>
+      <c r="C246" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F246" s="11" t="s">
         <v>307</v>
       </c>
@@ -7239,9 +8155,15 @@
       <c r="B247" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="10"/>
+      <c r="C247" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="F247" s="11" t="s">
         <v>308</v>
       </c>
@@ -7653,9 +8575,15 @@
       <c r="B268" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C268" s="9"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="10"/>
+      <c r="C268" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F268" s="11" t="s">
         <v>309</v>
       </c>
@@ -7667,9 +8595,15 @@
       <c r="B269" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C269" s="9"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="10"/>
+      <c r="C269" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F269" s="11" t="s">
         <v>310</v>
       </c>
@@ -7681,9 +8615,15 @@
       <c r="B270" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C270" s="9"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="10"/>
+      <c r="C270" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F270" s="11" t="s">
         <v>311</v>
       </c>
@@ -7695,11 +8635,17 @@
       <c r="B271" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="10"/>
+      <c r="C271" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F271" s="11" t="s">
-        <v>311</v>
+        <v>787</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7709,9 +8655,15 @@
       <c r="B272" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="10"/>
+      <c r="C272" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F272" s="11" t="s">
         <v>312</v>
       </c>
@@ -7723,9 +8675,15 @@
       <c r="B273" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C273" s="9"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="10"/>
+      <c r="C273" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F273" s="11" t="s">
         <v>313</v>
       </c>
@@ -7737,9 +8695,15 @@
       <c r="B274" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="10"/>
+      <c r="C274" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F274" s="11" t="s">
         <v>314</v>
       </c>
@@ -7751,9 +8715,15 @@
       <c r="B275" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="10"/>
+      <c r="C275" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F275" s="11" t="s">
         <v>315</v>
       </c>
@@ -7765,9 +8735,15 @@
       <c r="B276" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C276" s="9"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="10"/>
+      <c r="C276" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F276" s="11" t="s">
         <v>316</v>
       </c>
@@ -7779,9 +8755,15 @@
       <c r="B277" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="10"/>
+      <c r="C277" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F277" s="11" t="s">
         <v>317</v>
       </c>
@@ -7793,9 +8775,15 @@
       <c r="B278" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C278" s="9"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="10"/>
+      <c r="C278" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="E278" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F278" s="11" t="s">
         <v>318</v>
       </c>
@@ -7807,11 +8795,17 @@
       <c r="B279" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C279" s="9"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="10"/>
+      <c r="C279" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F279" s="11" t="s">
-        <v>318</v>
+        <v>786</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7821,9 +8815,15 @@
       <c r="B280" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C280" s="9"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="10"/>
+      <c r="C280" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F280" s="11" t="s">
         <v>319</v>
       </c>
@@ -7835,9 +8835,15 @@
       <c r="B281" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C281" s="9"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="10"/>
+      <c r="C281" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F281" s="11" t="s">
         <v>320</v>
       </c>
@@ -7849,9 +8855,15 @@
       <c r="B282" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C282" s="9"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="10"/>
+      <c r="C282" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="E282" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F282" s="11" t="s">
         <v>321</v>
       </c>
@@ -7863,9 +8875,15 @@
       <c r="B283" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C283" s="9"/>
-      <c r="D283" s="4"/>
-      <c r="E283" s="10"/>
+      <c r="C283" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F283" s="11" t="s">
         <v>322</v>
       </c>
@@ -7877,9 +8895,15 @@
       <c r="B284" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C284" s="8"/>
-      <c r="D284" s="5"/>
-      <c r="E284" s="6"/>
+      <c r="C284" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E284" s="10" t="s">
+        <v>781</v>
+      </c>
       <c r="F284" s="12" t="s">
         <v>322</v>
       </c>
@@ -7893,4 +8917,727 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F8B4CA-AD1D-4E6B-BDB6-617CA9B7EFFA}">
+  <dimension ref="D3:F61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D3" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F3" t="str">
+        <f>D3&amp;","&amp;E3</f>
+        <v>Japanese,YES,YES,K,DESCR</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D4" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="E4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F61" si="0">D4&amp;","&amp;E4</f>
+        <v>Japanese,YES,YES,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D5" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="E5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,YES,YES,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D6" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="E6" t="s">
+        <v>720</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,YES,YES,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D7" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="E7" t="s">
+        <v>720</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,YES,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D8" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="E8" t="s">
+        <v>720</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,YES,K,DESCR</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D9" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E9" t="s">
+        <v>720</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,YES,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D10" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="E10" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,YES,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="E11" t="s">
+        <v>720</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,YES,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="E12" t="s">
+        <v>720</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,YES,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D13" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E13" t="s">
+        <v>720</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,YES,K,DESCR</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D14" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" t="s">
+        <v>720</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,YES,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D15" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="E15" t="s">
+        <v>720</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,YES,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D16" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="E16" t="s">
+        <v>720</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,YES,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D17" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="E17" t="s">
+        <v>720</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,NO,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D18" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="E18" t="s">
+        <v>720</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,NO,K,DESCR</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D19" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="E19" t="s">
+        <v>720</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,NO,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D20" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="E20" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,NO,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D21" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="E21" t="s">
+        <v>720</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,NO,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D22" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E22" t="s">
+        <v>720</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,NO,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D23" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E23" t="s">
+        <v>720</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,NO,K,DESCR</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D24" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="E24" t="s">
+        <v>720</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,NO,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D25" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="E25" t="s">
+        <v>720</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,NO,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D26" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="E26" t="s">
+        <v>720</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,NO,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D27" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E27" t="s">
+        <v>720</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,NO,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D28" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="E28" t="s">
+        <v>720</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,NO,K,DESCR</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D29" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="E29" t="s">
+        <v>720</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,NO,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D30" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="E30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,NO,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D31" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="E31" t="s">
+        <v>720</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,NO,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D32" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E32" t="s">
+        <v>720</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,YES,NO,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D33" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E33" t="s">
+        <v>720</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,YES,NO,K,DESCR</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D34" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="E34" t="s">
+        <v>720</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,YES,NO,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D35" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E35" t="s">
+        <v>720</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,YES,NO,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D36" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="E36" t="s">
+        <v>720</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,YES,NO,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D37" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="E37" t="s">
+        <v>720</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,NO,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D38" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="E38" t="s">
+        <v>720</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,NO,K,DESCR</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D39" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E39" t="s">
+        <v>720</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,NO,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D40" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="E40" t="s">
+        <v>720</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,NO,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D41" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E41" t="s">
+        <v>720</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>English,YES,NO,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D42" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="E42" t="s">
+        <v>720</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,NO,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D43" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E43" t="s">
+        <v>720</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,NO,K,DESCR</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D44" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="E44" t="s">
+        <v>720</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,NO,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D45" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E45" t="s">
+        <v>720</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,NO,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D46" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="E46" t="s">
+        <v>720</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>French,YES,NO,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D47" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E47" t="s">
+        <v>720</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,YES,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D48" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="E48" t="s">
+        <v>720</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,YES,K,DESCR</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D49" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E49" t="s">
+        <v>720</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,YES,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D50" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="E50" t="s">
+        <v>720</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,YES,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D51" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E51" t="s">
+        <v>720</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>Japanese,NO,YES,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D52" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="E52" t="s">
+        <v>720</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,YES,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D53" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="E53" t="s">
+        <v>720</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,YES,K,DESCR</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D54" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="E54" t="s">
+        <v>720</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,YES,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D55" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E55" t="s">
+        <v>720</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,YES,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D56" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="E56" t="s">
+        <v>720</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>English,NO,YES,TRLN,DESCR</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D57" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="E57" t="s">
+        <v>720</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,YES,SINGLE,DESCR</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D58" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="E58" t="s">
+        <v>720</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,YES,K,DESCR</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D59" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="E59" t="s">
+        <v>720</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,YES,MLN,DESCR</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D60" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="E60" t="s">
+        <v>720</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,YES,BLN,DESCR</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D61" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="E61" t="s">
+        <v>720</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>French,NO,YES,TRLN,DESCR</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
+++ b/LA_Sikuli/src/test/resources/TestData/Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\LA_Sikuli\LA_Sikuli\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B30F9B8-F16C-40A0-86B1-FDA68EFEAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C77072-966A-46D1-A9F2-3C21B96DA4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2483,7 +2483,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2505,6 +2505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,7 +2603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2615,9 +2621,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2647,20 +2650,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3212,8 +3212,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3264,7 +3264,7 @@
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       <c r="B5" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3324,7 +3324,7 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       <c r="B6" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3344,7 +3344,7 @@
       <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       <c r="B7" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3364,7 +3364,7 @@
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       <c r="B8" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3384,7 +3384,7 @@
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       <c r="B9" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3404,7 +3404,7 @@
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       <c r="B10" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3424,7 +3424,7 @@
       <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       <c r="B11" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3444,7 +3444,7 @@
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       <c r="B12" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3464,7 +3464,7 @@
       <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="B13" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -3484,7 +3484,7 @@
       <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       <c r="B14" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3504,7 +3504,7 @@
       <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       <c r="B15" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3524,7 +3524,7 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       <c r="B16" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -3544,7 +3544,7 @@
       <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       <c r="B17" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -3564,7 +3564,7 @@
       <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       <c r="B18" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3584,7 +3584,7 @@
       <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       <c r="B19" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -3604,7 +3604,7 @@
       <c r="E19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       <c r="B20" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -3624,7 +3624,7 @@
       <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       <c r="B21" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -3644,7 +3644,7 @@
       <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       <c r="B22" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3664,7 +3664,7 @@
       <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       <c r="B23" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -3684,7 +3684,7 @@
       <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       <c r="B24" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3704,7 +3704,7 @@
       <c r="E24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       <c r="B25" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -3724,7 +3724,7 @@
       <c r="E25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       <c r="B26" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -3744,7 +3744,7 @@
       <c r="E26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       <c r="B27" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -3764,7 +3764,7 @@
       <c r="E27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       <c r="B28" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -3784,7 +3784,7 @@
       <c r="E28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       <c r="B29" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -3804,7 +3804,7 @@
       <c r="E29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       <c r="B30" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -3824,7 +3824,7 @@
       <c r="E30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="B31" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3844,7 +3844,7 @@
       <c r="E31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       <c r="B32" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -3864,7 +3864,7 @@
       <c r="E32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       <c r="B33" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -3884,7 +3884,7 @@
       <c r="E33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       <c r="B34" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3904,7 +3904,7 @@
       <c r="E34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="B35" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3924,7 +3924,7 @@
       <c r="E35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       <c r="B36" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -3944,7 +3944,7 @@
       <c r="E36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="B37" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3964,7 +3964,7 @@
       <c r="E37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       <c r="B38" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -3984,7 +3984,7 @@
       <c r="E38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       <c r="B39" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -4004,7 +4004,7 @@
       <c r="E39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       <c r="B40" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -4024,7 +4024,7 @@
       <c r="E40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       <c r="B41" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4044,7 +4044,7 @@
       <c r="E41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="19" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       <c r="B42" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -4064,7 +4064,7 @@
       <c r="E42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       <c r="B43" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -4084,7 +4084,7 @@
       <c r="E43" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       <c r="B44" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -4104,7 +4104,7 @@
       <c r="E44" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="19" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       <c r="B45" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4124,7 +4124,7 @@
       <c r="E45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       <c r="B46" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -4144,7 +4144,7 @@
       <c r="E46" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       <c r="B47" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -4164,7 +4164,7 @@
       <c r="E47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       <c r="B48" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -4184,7 +4184,7 @@
       <c r="E48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="19" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       <c r="B49" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -4204,7 +4204,7 @@
       <c r="E49" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       <c r="B50" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -4224,7 +4224,7 @@
       <c r="E50" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       <c r="B51" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -4244,7 +4244,7 @@
       <c r="E51" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
       <c r="B52" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -4264,7 +4264,7 @@
       <c r="E52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       <c r="E53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       <c r="E54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       <c r="B55" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -4324,7 +4324,7 @@
       <c r="E55" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="19" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       <c r="B56" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -4344,7 +4344,7 @@
       <c r="E56" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="B57" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -4364,7 +4364,7 @@
       <c r="E57" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="19" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       <c r="B58" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4384,7 +4384,7 @@
       <c r="E58" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       <c r="B59" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -4404,7 +4404,7 @@
       <c r="E59" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="19" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
       <c r="B60" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4424,7 +4424,7 @@
       <c r="E60" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       <c r="B61" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -4444,7 +4444,7 @@
       <c r="E61" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       <c r="B62" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4464,7 +4464,7 @@
       <c r="E62" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       <c r="B63" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4484,7 +4484,7 @@
       <c r="E63" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="19" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
       <c r="B64" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4504,7 +4504,7 @@
       <c r="E64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="19" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       <c r="B65" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -4524,7 +4524,7 @@
       <c r="E65" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="19" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       <c r="B66" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -4544,7 +4544,7 @@
       <c r="E66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       <c r="B67" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -4564,7 +4564,7 @@
       <c r="E67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="19" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       <c r="B68" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -4584,7 +4584,7 @@
       <c r="E68" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4595,7 +4595,7 @@
       <c r="B69" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -4604,7 +4604,7 @@
       <c r="E69" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="19" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       <c r="B70" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4624,7 +4624,7 @@
       <c r="E70" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       <c r="B71" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -4644,7 +4644,7 @@
       <c r="E71" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="19" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="B72" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -4664,7 +4664,7 @@
       <c r="E72" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="19" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       <c r="B73" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -4684,7 +4684,7 @@
       <c r="E73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="19" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       <c r="B74" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -4704,7 +4704,7 @@
       <c r="E74" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       <c r="B75" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -4724,7 +4724,7 @@
       <c r="E75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="19" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="B76" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4744,7 +4744,7 @@
       <c r="E76" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="19" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       <c r="E77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="19" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       <c r="E78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       <c r="B79" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -4804,7 +4804,7 @@
       <c r="E79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       <c r="B80" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -4824,7 +4824,7 @@
       <c r="E80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="19" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       <c r="B81" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -4844,7 +4844,7 @@
       <c r="E81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="B82" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -4864,7 +4864,7 @@
       <c r="E82" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
       <c r="B83" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -4884,7 +4884,7 @@
       <c r="E83" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="19" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       <c r="B84" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -4904,7 +4904,7 @@
       <c r="E84" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="19" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       <c r="B85" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -4924,7 +4924,7 @@
       <c r="E85" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="19" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       <c r="B86" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -4944,7 +4944,7 @@
       <c r="E86" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="19" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       <c r="B87" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -4964,7 +4964,7 @@
       <c r="E87" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="19" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       <c r="B88" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -4984,7 +4984,7 @@
       <c r="E88" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       <c r="B89" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5004,7 +5004,7 @@
       <c r="E89" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       <c r="B90" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5024,7 +5024,7 @@
       <c r="E90" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       <c r="B91" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -5044,7 +5044,7 @@
       <c r="E91" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="19" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       <c r="B92" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -5064,7 +5064,7 @@
       <c r="E92" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="16" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       <c r="B93" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -5084,7 +5084,7 @@
       <c r="E93" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="16" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="B94" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -5104,7 +5104,7 @@
       <c r="E94" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       <c r="B95" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -5124,7 +5124,7 @@
       <c r="E95" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       <c r="B96" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -5144,7 +5144,7 @@
       <c r="E96" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       <c r="B97" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -5164,7 +5164,7 @@
       <c r="E97" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="16" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       <c r="B98" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5184,7 +5184,7 @@
       <c r="E98" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="16" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="B99" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -5204,7 +5204,7 @@
       <c r="E99" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="16" t="s">
         <v>640</v>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       <c r="B100" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -5224,7 +5224,7 @@
       <c r="E100" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="16" t="s">
         <v>641</v>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="B101" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -5244,7 +5244,7 @@
       <c r="E101" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="16" t="s">
         <v>642</v>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       <c r="B102" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>606</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -5264,7 +5264,7 @@
       <c r="E102" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       <c r="B103" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>606</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -5284,7 +5284,7 @@
       <c r="E103" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="16" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       <c r="B104" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>606</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -5304,7 +5304,7 @@
       <c r="E104" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       <c r="B105" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>606</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5324,7 +5324,7 @@
       <c r="E105" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="16" t="s">
         <v>609</v>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       <c r="B106" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>606</v>
       </c>
       <c r="D106" s="4" t="s">
@@ -5344,7 +5344,7 @@
       <c r="E106" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="16" t="s">
         <v>615</v>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       <c r="B107" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>606</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -5364,687 +5364,687 @@
       <c r="E107" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="16" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B108" s="15" t="s">
+      <c r="A108" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C108" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F108" s="14" t="s">
+      <c r="C108" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F108" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B109" s="15" t="s">
+      <c r="A109" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F109" s="14" t="s">
+      <c r="C109" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F109" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B110" s="15" t="s">
+      <c r="A110" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F110" s="14" t="s">
+      <c r="C110" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F110" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B111" s="15" t="s">
+      <c r="A111" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F111" s="14" t="s">
+      <c r="C111" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F111" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F112" s="14" t="s">
+      <c r="C112" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F112" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B113" s="15" t="s">
+      <c r="A113" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="C113" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F113" s="14" t="s">
+      <c r="C113" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F113" s="13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B114" s="15" t="s">
+      <c r="A114" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F114" s="14" t="s">
+      <c r="C114" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F114" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B115" s="15" t="s">
+      <c r="A115" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="C115" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F115" s="14" t="s">
+      <c r="C115" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F115" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F116" s="14" t="s">
+      <c r="C116" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F116" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F117" s="14" t="s">
+      <c r="C117" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F117" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B118" s="15" t="s">
+      <c r="A118" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C118" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F118" s="14" t="s">
+      <c r="C118" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F118" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="C119" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F119" s="14" t="s">
+      <c r="C119" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F119" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C120" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F120" s="14" t="s">
+      <c r="C120" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F120" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F121" s="14" t="s">
+      <c r="C121" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F121" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B122" s="15" t="s">
+      <c r="A122" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F122" s="14" t="s">
+      <c r="C122" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F122" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="C123" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F123" s="14" t="s">
+      <c r="C123" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F123" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C124" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F124" s="14" t="s">
+      <c r="C124" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F124" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="C125" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F125" s="14" t="s">
+      <c r="C125" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F125" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B126" s="15" t="s">
+      <c r="A126" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F126" s="14" t="s">
+      <c r="C126" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F126" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B127" s="15" t="s">
+      <c r="A127" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C127" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F127" s="14" t="s">
+      <c r="C127" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F127" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B128" s="15" t="s">
+      <c r="A128" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F128" s="14" t="s">
+      <c r="C128" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F128" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B129" s="15" t="s">
+      <c r="A129" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C129" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F129" s="14" t="s">
+      <c r="C129" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F129" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B130" s="15" t="s">
+      <c r="A130" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C130" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F130" s="14" t="s">
+      <c r="C130" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F130" s="13" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B131" s="15" t="s">
+      <c r="A131" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C131" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F131" s="14" t="s">
+      <c r="C131" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F131" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F132" s="14" t="s">
+      <c r="C132" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F132" s="13" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B133" s="15" t="s">
+      <c r="A133" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="C133" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F133" s="14" t="s">
+      <c r="C133" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F133" s="13" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B134" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C134" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F134" s="14" t="s">
+      <c r="C134" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F134" s="13" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B135" s="15" t="s">
+      <c r="A135" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="C135" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F135" s="14" t="s">
+      <c r="C135" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F135" s="13" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B136" s="15" t="s">
+      <c r="A136" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C136" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F136" s="14" t="s">
+      <c r="C136" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F136" s="13" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B137" s="15" t="s">
+      <c r="A137" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B137" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C137" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F137" s="14" t="s">
+      <c r="C137" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F137" s="13" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B138" s="15" t="s">
+      <c r="A138" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B138" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F138" s="14" t="s">
+      <c r="C138" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F138" s="13" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B139" s="15" t="s">
+      <c r="A139" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B139" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="C139" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F139" s="14" t="s">
+      <c r="C139" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F139" s="13" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B140" s="15" t="s">
+      <c r="A140" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B140" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C140" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F140" s="14" t="s">
+      <c r="C140" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F140" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B141" s="15" t="s">
+      <c r="A141" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B141" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="C141" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="F141" s="14" t="s">
+      <c r="C141" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F141" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       <c r="B142" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="8" t="s">
         <v>616</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -6064,7 +6064,7 @@
       <c r="E142" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F142" s="11" t="s">
+      <c r="F142" s="10" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       <c r="B143" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="8" t="s">
         <v>616</v>
       </c>
       <c r="D143" s="5" t="s">
@@ -6084,7 +6084,7 @@
       <c r="E143" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="10" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       <c r="B144" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="8" t="s">
         <v>616</v>
       </c>
       <c r="D144" s="5" t="s">
@@ -6104,7 +6104,7 @@
       <c r="E144" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="F144" s="10" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="B145" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="8" t="s">
         <v>620</v>
       </c>
       <c r="D145" s="4" t="s">
@@ -6124,7 +6124,7 @@
       <c r="E145" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F145" s="10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       <c r="B146" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="8" t="s">
         <v>620</v>
       </c>
       <c r="D146" s="4" t="s">
@@ -6144,7 +6144,7 @@
       <c r="E146" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F146" s="11" t="s">
+      <c r="F146" s="10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       <c r="B147" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="8" t="s">
         <v>620</v>
       </c>
       <c r="D147" s="4" t="s">
@@ -6164,7 +6164,7 @@
       <c r="E147" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       <c r="B148" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="8" t="s">
         <v>620</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -6184,7 +6184,7 @@
       <c r="E148" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F148" s="11" t="s">
+      <c r="F148" s="10" t="s">
         <v>217</v>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
       <c r="B149" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="8" t="s">
         <v>620</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -6204,7 +6204,7 @@
       <c r="E149" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F149" s="10" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       <c r="B150" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="8" t="s">
         <v>620</v>
       </c>
       <c r="D150" s="4" t="s">
@@ -6224,7 +6224,7 @@
       <c r="E150" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="F150" s="10" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
       <c r="B151" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="8" t="s">
         <v>620</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -6244,7 +6244,7 @@
       <c r="E151" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="F151" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
       <c r="B152" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="8" t="s">
         <v>657</v>
       </c>
       <c r="D152" s="4" t="s">
@@ -6264,7 +6264,7 @@
       <c r="E152" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F152" s="11" t="s">
+      <c r="F152" s="10" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
       <c r="B153" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="8" t="s">
         <v>657</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -6284,7 +6284,7 @@
       <c r="E153" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F153" s="11" t="s">
+      <c r="F153" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       <c r="B154" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="8" t="s">
         <v>657</v>
       </c>
       <c r="D154" s="4" t="s">
@@ -6304,7 +6304,7 @@
       <c r="E154" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       <c r="B155" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D155" s="4" t="s">
@@ -6324,7 +6324,7 @@
       <c r="E155" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" s="10" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       <c r="B156" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -6344,7 +6344,7 @@
       <c r="E156" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="11" t="s">
+      <c r="F156" s="10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       <c r="B157" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -6364,7 +6364,7 @@
       <c r="E157" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="11" t="s">
+      <c r="F157" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="B158" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -6384,7 +6384,7 @@
       <c r="E158" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F158" s="11" t="s">
+      <c r="F158" s="10" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       <c r="B159" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D159" s="4" t="s">
@@ -6404,7 +6404,7 @@
       <c r="E159" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="F159" s="10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       <c r="B160" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D160" s="4" t="s">
@@ -6424,7 +6424,7 @@
       <c r="E160" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F160" s="10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       <c r="B161" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D161" s="4" t="s">
@@ -6444,7 +6444,7 @@
       <c r="E161" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F161" s="11" t="s">
+      <c r="F161" s="10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
       <c r="B162" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -6464,7 +6464,7 @@
       <c r="E162" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F162" s="11" t="s">
+      <c r="F162" s="10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       <c r="B163" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -6484,27 +6484,27 @@
       <c r="E163" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F163" s="11" t="s">
+      <c r="F163" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="17" t="s">
+    <row r="164" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F164" s="20" t="s">
+      <c r="F164" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="B165" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -6524,7 +6524,7 @@
       <c r="E165" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F165" s="11" t="s">
+      <c r="F165" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       <c r="B166" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -6544,7 +6544,7 @@
       <c r="E166" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F166" s="11" t="s">
+      <c r="F166" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       <c r="B167" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D167" s="5" t="s">
@@ -6564,7 +6564,7 @@
       <c r="E167" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F167" s="11" t="s">
+      <c r="F167" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       <c r="B168" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -6584,7 +6584,7 @@
       <c r="E168" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F168" s="11" t="s">
+      <c r="F168" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       <c r="B169" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D169" s="5" t="s">
@@ -6604,7 +6604,7 @@
       <c r="E169" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F169" s="11" t="s">
+      <c r="F169" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6615,7 +6615,7 @@
       <c r="B170" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -6624,7 +6624,7 @@
       <c r="E170" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F170" s="11" t="s">
+      <c r="F170" s="16" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       <c r="B171" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -6644,7 +6644,7 @@
       <c r="E171" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F171" s="11" t="s">
+      <c r="F171" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       <c r="B172" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D172" s="5" t="s">
@@ -6664,7 +6664,7 @@
       <c r="E172" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="F172" s="16" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       <c r="B173" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -6684,7 +6684,7 @@
       <c r="E173" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F173" s="11" t="s">
+      <c r="F173" s="16" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       <c r="B174" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -6704,7 +6704,7 @@
       <c r="E174" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F174" s="11" t="s">
+      <c r="F174" s="16" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       <c r="B175" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D175" s="4" t="s">
@@ -6724,7 +6724,7 @@
       <c r="E175" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="F175" s="16" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6735,7 +6735,7 @@
       <c r="B176" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D176" s="4" t="s">
@@ -6744,7 +6744,7 @@
       <c r="E176" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F176" s="11" t="s">
+      <c r="F176" s="16" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       <c r="B177" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D177" s="4" t="s">
@@ -6764,7 +6764,7 @@
       <c r="E177" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F177" s="11" t="s">
+      <c r="F177" s="16" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
       <c r="B178" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="4" t="s">
@@ -6784,7 +6784,7 @@
       <c r="E178" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F178" s="11" t="s">
+      <c r="F178" s="16" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       <c r="B179" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D179" s="4" t="s">
@@ -6804,7 +6804,7 @@
       <c r="E179" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F179" s="11" t="s">
+      <c r="F179" s="16" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6815,7 +6815,7 @@
       <c r="B180" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D180" s="4" t="s">
@@ -6824,7 +6824,7 @@
       <c r="E180" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F180" s="11" t="s">
+      <c r="F180" s="16" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       <c r="B181" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D181" s="5" t="s">
@@ -6844,7 +6844,7 @@
       <c r="E181" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F181" s="11" t="s">
+      <c r="F181" s="16" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       <c r="B182" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D182" s="5" t="s">
@@ -6864,7 +6864,7 @@
       <c r="E182" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F182" s="11" t="s">
+      <c r="F182" s="16" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       <c r="B183" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D183" s="4" t="s">
@@ -6884,7 +6884,7 @@
       <c r="E183" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F183" s="11" t="s">
+      <c r="F183" s="16" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="B184" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D184" s="4" t="s">
@@ -6904,7 +6904,7 @@
       <c r="E184" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F184" s="11" t="s">
+      <c r="F184" s="16" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       <c r="B185" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D185" s="4" t="s">
@@ -6924,7 +6924,7 @@
       <c r="E185" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F185" s="11" t="s">
+      <c r="F185" s="16" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       <c r="B186" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D186" s="4" t="s">
@@ -6944,7 +6944,7 @@
       <c r="E186" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F186" s="11" t="s">
+      <c r="F186" s="16" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       <c r="B187" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D187" s="4" t="s">
@@ -6964,7 +6964,7 @@
       <c r="E187" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F187" s="11" t="s">
+      <c r="F187" s="16" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6975,16 +6975,16 @@
       <c r="B188" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="E188" s="10" t="s">
+      <c r="E188" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F188" s="11" t="s">
+      <c r="F188" s="10" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6995,16 +6995,16 @@
       <c r="B189" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="E189" s="10" t="s">
+      <c r="E189" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F189" s="11" t="s">
+      <c r="F189" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7015,16 +7015,16 @@
       <c r="B190" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="E190" s="10" t="s">
+      <c r="E190" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F190" s="11" t="s">
+      <c r="F190" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7035,16 +7035,16 @@
       <c r="B191" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="E191" s="10" t="s">
+      <c r="E191" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F191" s="11" t="s">
+      <c r="F191" s="10" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7055,16 +7055,16 @@
       <c r="B192" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="E192" s="10" t="s">
+      <c r="E192" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F192" s="11" t="s">
+      <c r="F192" s="10" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7075,16 +7075,16 @@
       <c r="B193" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="E193" s="10" t="s">
+      <c r="E193" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F193" s="11" t="s">
+      <c r="F193" s="10" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7095,16 +7095,16 @@
       <c r="B194" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C194" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="E194" s="10" t="s">
+      <c r="E194" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F194" s="11" t="s">
+      <c r="F194" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7115,16 +7115,16 @@
       <c r="B195" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="E195" s="10" t="s">
+      <c r="E195" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F195" s="11" t="s">
+      <c r="F195" s="10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7135,16 +7135,16 @@
       <c r="B196" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="E196" s="10" t="s">
+      <c r="E196" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F196" s="11" t="s">
+      <c r="F196" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7155,16 +7155,16 @@
       <c r="B197" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="E197" s="10" t="s">
+      <c r="E197" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F197" s="11" t="s">
+      <c r="F197" s="10" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7175,16 +7175,16 @@
       <c r="B198" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="E198" s="10" t="s">
+      <c r="E198" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F198" s="11" t="s">
+      <c r="F198" s="10" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7195,16 +7195,16 @@
       <c r="B199" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="E199" s="10" t="s">
+      <c r="E199" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F199" s="11" t="s">
+      <c r="F199" s="10" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7215,16 +7215,16 @@
       <c r="B200" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="E200" s="10" t="s">
+      <c r="E200" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F200" s="11" t="s">
+      <c r="F200" s="10" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7235,16 +7235,16 @@
       <c r="B201" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="E201" s="10" t="s">
+      <c r="E201" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F201" s="11" t="s">
+      <c r="F201" s="10" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7255,16 +7255,16 @@
       <c r="B202" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="E202" s="10" t="s">
+      <c r="E202" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F202" s="11" t="s">
+      <c r="F202" s="10" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7275,16 +7275,16 @@
       <c r="B203" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="E203" s="10" t="s">
+      <c r="E203" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F203" s="11" t="s">
+      <c r="F203" s="10" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7295,16 +7295,16 @@
       <c r="B204" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="E204" s="10" t="s">
+      <c r="E204" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F204" s="11" t="s">
+      <c r="F204" s="10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7315,16 +7315,16 @@
       <c r="B205" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E205" s="10" t="s">
+      <c r="E205" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F205" s="11" t="s">
+      <c r="F205" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7335,16 +7335,16 @@
       <c r="B206" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="E206" s="10" t="s">
+      <c r="E206" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F206" s="11" t="s">
+      <c r="F206" s="10" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7355,16 +7355,16 @@
       <c r="B207" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="E207" s="10" t="s">
+      <c r="E207" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F207" s="11" t="s">
+      <c r="F207" s="10" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7375,16 +7375,16 @@
       <c r="B208" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="E208" s="10" t="s">
+      <c r="E208" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F208" s="11" t="s">
+      <c r="F208" s="10" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7395,16 +7395,16 @@
       <c r="B209" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C209" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="E209" s="10" t="s">
+      <c r="E209" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F209" s="11" t="s">
+      <c r="F209" s="10" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7415,16 +7415,16 @@
       <c r="B210" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="E210" s="10" t="s">
+      <c r="E210" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F210" s="11" t="s">
+      <c r="F210" s="10" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7435,16 +7435,16 @@
       <c r="B211" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E211" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F211" s="11" t="s">
+      <c r="F211" s="10" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7455,16 +7455,16 @@
       <c r="B212" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="E212" s="10" t="s">
+      <c r="E212" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F212" s="11" t="s">
+      <c r="F212" s="10" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7475,16 +7475,16 @@
       <c r="B213" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="E213" s="10" t="s">
+      <c r="E213" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F213" s="11" t="s">
+      <c r="F213" s="10" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7495,16 +7495,16 @@
       <c r="B214" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F214" s="11" t="s">
+      <c r="F214" s="10" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7515,16 +7515,16 @@
       <c r="B215" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="E215" s="10" t="s">
+      <c r="E215" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F215" s="11" t="s">
+      <c r="F215" s="10" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7535,16 +7535,16 @@
       <c r="B216" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="E216" s="10" t="s">
+      <c r="E216" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F216" s="11" t="s">
+      <c r="F216" s="10" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7555,16 +7555,16 @@
       <c r="B217" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F217" s="11" t="s">
+      <c r="F217" s="10" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7575,16 +7575,16 @@
       <c r="B218" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="E218" s="10" t="s">
+      <c r="E218" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F218" s="11" t="s">
+      <c r="F218" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7595,16 +7595,16 @@
       <c r="B219" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="E219" s="10" t="s">
+      <c r="E219" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F219" s="11" t="s">
+      <c r="F219" s="10" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7615,16 +7615,16 @@
       <c r="B220" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C220" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="E220" s="10" t="s">
+      <c r="E220" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F220" s="11" t="s">
+      <c r="F220" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7635,16 +7635,16 @@
       <c r="B221" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="E221" s="10" t="s">
+      <c r="E221" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F221" s="11" t="s">
+      <c r="F221" s="10" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7655,16 +7655,16 @@
       <c r="B222" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="E222" s="10" t="s">
+      <c r="E222" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F222" s="11" t="s">
+      <c r="F222" s="10" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7675,16 +7675,16 @@
       <c r="B223" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C223" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="E223" s="10" t="s">
+      <c r="E223" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F223" s="11" t="s">
+      <c r="F223" s="10" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7695,16 +7695,16 @@
       <c r="B224" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="E224" s="10" t="s">
+      <c r="E224" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F224" s="11" t="s">
+      <c r="F224" s="10" t="s">
         <v>285</v>
       </c>
     </row>
@@ -7715,16 +7715,16 @@
       <c r="B225" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C225" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="E225" s="10" t="s">
+      <c r="E225" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F225" s="11" t="s">
+      <c r="F225" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7735,16 +7735,16 @@
       <c r="B226" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C226" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="E226" s="10" t="s">
+      <c r="E226" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F226" s="11" t="s">
+      <c r="F226" s="10" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7755,16 +7755,16 @@
       <c r="B227" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="E227" s="10" t="s">
+      <c r="E227" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F227" s="11" t="s">
+      <c r="F227" s="10" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7775,16 +7775,16 @@
       <c r="B228" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="E228" s="10" t="s">
+      <c r="E228" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F228" s="11" t="s">
+      <c r="F228" s="10" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7795,16 +7795,16 @@
       <c r="B229" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="E229" s="10" t="s">
+      <c r="E229" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F229" s="11" t="s">
+      <c r="F229" s="10" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7815,16 +7815,16 @@
       <c r="B230" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C230" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="E230" s="10" t="s">
+      <c r="E230" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F230" s="11" t="s">
+      <c r="F230" s="10" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7835,16 +7835,16 @@
       <c r="B231" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="E231" s="10" t="s">
+      <c r="E231" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F231" s="11" t="s">
+      <c r="F231" s="10" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7855,16 +7855,16 @@
       <c r="B232" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="E232" s="10" t="s">
+      <c r="E232" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F232" s="11" t="s">
+      <c r="F232" s="10" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7875,16 +7875,16 @@
       <c r="B233" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="E233" s="10" t="s">
+      <c r="E233" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F233" s="11" t="s">
+      <c r="F233" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7895,16 +7895,16 @@
       <c r="B234" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="E234" s="10" t="s">
+      <c r="E234" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F234" s="11" t="s">
+      <c r="F234" s="10" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7915,16 +7915,16 @@
       <c r="B235" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="E235" s="10" t="s">
+      <c r="E235" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F235" s="11" t="s">
+      <c r="F235" s="10" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7935,16 +7935,16 @@
       <c r="B236" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="E236" s="10" t="s">
+      <c r="E236" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F236" s="11" t="s">
+      <c r="F236" s="10" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7955,16 +7955,16 @@
       <c r="B237" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="E237" s="10" t="s">
+      <c r="E237" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F237" s="11" t="s">
+      <c r="F237" s="10" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7975,16 +7975,16 @@
       <c r="B238" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="E238" s="10" t="s">
+      <c r="E238" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F238" s="11" t="s">
+      <c r="F238" s="10" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7995,16 +7995,16 @@
       <c r="B239" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="C239" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="E239" s="10" t="s">
+      <c r="E239" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F239" s="11" t="s">
+      <c r="F239" s="10" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8015,16 +8015,16 @@
       <c r="B240" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="E240" s="10" t="s">
+      <c r="E240" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F240" s="11" t="s">
+      <c r="F240" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8035,16 +8035,16 @@
       <c r="B241" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="E241" s="10" t="s">
+      <c r="E241" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F241" s="11" t="s">
+      <c r="F241" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -8055,16 +8055,16 @@
       <c r="B242" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="E242" s="10" t="s">
+      <c r="E242" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F242" s="11" t="s">
+      <c r="F242" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8075,16 +8075,16 @@
       <c r="B243" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="C243" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="E243" s="10" t="s">
+      <c r="E243" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F243" s="11" t="s">
+      <c r="F243" s="10" t="s">
         <v>304</v>
       </c>
     </row>
@@ -8095,16 +8095,16 @@
       <c r="B244" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="E244" s="10" t="s">
+      <c r="E244" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F244" s="11" t="s">
+      <c r="F244" s="10" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8115,16 +8115,16 @@
       <c r="B245" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="E245" s="10" t="s">
+      <c r="E245" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F245" s="11" t="s">
+      <c r="F245" s="10" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8135,16 +8135,16 @@
       <c r="B246" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="E246" s="10" t="s">
+      <c r="E246" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F246" s="11" t="s">
+      <c r="F246" s="10" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8155,16 +8155,16 @@
       <c r="B247" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="8" t="s">
         <v>659</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="E247" s="10" t="s">
+      <c r="E247" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F247" s="11" t="s">
+      <c r="F247" s="10" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
       <c r="B248" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C248" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D248" s="4" t="s">
@@ -8184,7 +8184,7 @@
       <c r="E248" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F248" s="11" t="s">
+      <c r="F248" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       <c r="B249" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D249" s="4" t="s">
@@ -8204,7 +8204,7 @@
       <c r="E249" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F249" s="11" t="s">
+      <c r="F249" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="B250" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D250" s="4" t="s">
@@ -8224,7 +8224,7 @@
       <c r="E250" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F250" s="11" t="s">
+      <c r="F250" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       <c r="B251" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D251" s="4" t="s">
@@ -8244,7 +8244,7 @@
       <c r="E251" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F251" s="11" t="s">
+      <c r="F251" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       <c r="B252" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D252" s="4" t="s">
@@ -8264,7 +8264,7 @@
       <c r="E252" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F252" s="11" t="s">
+      <c r="F252" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       <c r="B253" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C253" s="9" t="s">
+      <c r="C253" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D253" s="4" t="s">
@@ -8284,7 +8284,7 @@
       <c r="E253" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F253" s="11" t="s">
+      <c r="F253" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       <c r="B254" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D254" s="4" t="s">
@@ -8304,7 +8304,7 @@
       <c r="E254" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F254" s="11" t="s">
+      <c r="F254" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       <c r="B255" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="C255" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D255" s="4" t="s">
@@ -8324,7 +8324,7 @@
       <c r="E255" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F255" s="11" t="s">
+      <c r="F255" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       <c r="B256" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D256" s="4" t="s">
@@ -8344,7 +8344,7 @@
       <c r="E256" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F256" s="11" t="s">
+      <c r="F256" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       <c r="B257" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C257" s="9" t="s">
+      <c r="C257" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D257" s="4" t="s">
@@ -8364,7 +8364,7 @@
       <c r="E257" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F257" s="11" t="s">
+      <c r="F257" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       <c r="B258" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C258" s="9" t="s">
+      <c r="C258" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D258" s="4" t="s">
@@ -8384,7 +8384,7 @@
       <c r="E258" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F258" s="11" t="s">
+      <c r="F258" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8395,7 +8395,7 @@
       <c r="B259" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C259" s="9" t="s">
+      <c r="C259" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D259" s="4" t="s">
@@ -8404,7 +8404,7 @@
       <c r="E259" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F259" s="11" t="s">
+      <c r="F259" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       <c r="B260" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="C260" s="9" t="s">
+      <c r="C260" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D260" s="4" t="s">
@@ -8424,7 +8424,7 @@
       <c r="E260" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F260" s="11" t="s">
+      <c r="F260" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       <c r="B261" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C261" s="9" t="s">
+      <c r="C261" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D261" s="4" t="s">
@@ -8444,7 +8444,7 @@
       <c r="E261" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F261" s="11" t="s">
+      <c r="F261" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8455,7 +8455,7 @@
       <c r="B262" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="C262" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D262" s="4" t="s">
@@ -8464,7 +8464,7 @@
       <c r="E262" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F262" s="11" t="s">
+      <c r="F262" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       <c r="B263" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D263" s="4" t="s">
@@ -8484,7 +8484,7 @@
       <c r="E263" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F263" s="11" t="s">
+      <c r="F263" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="B264" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C264" s="9" t="s">
+      <c r="C264" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D264" s="4" t="s">
@@ -8504,7 +8504,7 @@
       <c r="E264" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F264" s="11" t="s">
+      <c r="F264" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       <c r="B265" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C265" s="9" t="s">
+      <c r="C265" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D265" s="4" t="s">
@@ -8524,7 +8524,7 @@
       <c r="E265" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F265" s="11" t="s">
+      <c r="F265" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       <c r="B266" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C266" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D266" s="4" t="s">
@@ -8544,7 +8544,7 @@
       <c r="E266" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F266" s="11" t="s">
+      <c r="F266" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       <c r="B267" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C267" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D267" s="4" t="s">
@@ -8564,7 +8564,7 @@
       <c r="E267" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F267" s="11" t="s">
+      <c r="F267" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8575,16 +8575,16 @@
       <c r="B268" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="E268" s="10" t="s">
+      <c r="E268" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F268" s="11" t="s">
+      <c r="F268" s="10" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8595,16 +8595,16 @@
       <c r="B269" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="E269" s="10" t="s">
+      <c r="E269" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F269" s="11" t="s">
+      <c r="F269" s="10" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8615,16 +8615,16 @@
       <c r="B270" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="E270" s="10" t="s">
+      <c r="E270" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F270" s="11" t="s">
+      <c r="F270" s="10" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8635,16 +8635,16 @@
       <c r="B271" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C271" s="9" t="s">
+      <c r="C271" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="E271" s="10" t="s">
+      <c r="E271" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F271" s="11" t="s">
+      <c r="F271" s="10" t="s">
         <v>787</v>
       </c>
     </row>
@@ -8655,16 +8655,16 @@
       <c r="B272" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="C272" s="9" t="s">
+      <c r="C272" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="E272" s="10" t="s">
+      <c r="E272" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F272" s="11" t="s">
+      <c r="F272" s="10" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8675,16 +8675,16 @@
       <c r="B273" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C273" s="9" t="s">
+      <c r="C273" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="E273" s="10" t="s">
+      <c r="E273" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F273" s="11" t="s">
+      <c r="F273" s="10" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8695,16 +8695,16 @@
       <c r="B274" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C274" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="E274" s="10" t="s">
+      <c r="E274" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F274" s="11" t="s">
+      <c r="F274" s="10" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8715,16 +8715,16 @@
       <c r="B275" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C275" s="9" t="s">
+      <c r="C275" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="E275" s="10" t="s">
+      <c r="E275" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F275" s="11" t="s">
+      <c r="F275" s="10" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8735,16 +8735,16 @@
       <c r="B276" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C276" s="9" t="s">
+      <c r="C276" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="E276" s="10" t="s">
+      <c r="E276" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F276" s="11" t="s">
+      <c r="F276" s="10" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8755,16 +8755,16 @@
       <c r="B277" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C277" s="9" t="s">
+      <c r="C277" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="E277" s="10" t="s">
+      <c r="E277" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F277" s="11" t="s">
+      <c r="F277" s="10" t="s">
         <v>317</v>
       </c>
     </row>
@@ -8775,16 +8775,16 @@
       <c r="B278" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C278" s="9" t="s">
+      <c r="C278" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="E278" s="10" t="s">
+      <c r="E278" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F278" s="11" t="s">
+      <c r="F278" s="10" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8795,16 +8795,16 @@
       <c r="B279" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C279" s="9" t="s">
+      <c r="C279" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="E279" s="10" t="s">
+      <c r="E279" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F279" s="11" t="s">
+      <c r="F279" s="10" t="s">
         <v>786</v>
       </c>
     </row>
@@ -8815,16 +8815,16 @@
       <c r="B280" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C280" s="9" t="s">
+      <c r="C280" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="E280" s="10" t="s">
+      <c r="E280" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F280" s="11" t="s">
+      <c r="F280" s="10" t="s">
         <v>319</v>
       </c>
     </row>
@@ -8835,16 +8835,16 @@
       <c r="B281" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C281" s="9" t="s">
+      <c r="C281" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="E281" s="10" t="s">
+      <c r="E281" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F281" s="11" t="s">
+      <c r="F281" s="10" t="s">
         <v>320</v>
       </c>
     </row>
@@ -8855,16 +8855,16 @@
       <c r="B282" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C282" s="9" t="s">
+      <c r="C282" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="E282" s="10" t="s">
+      <c r="E282" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F282" s="11" t="s">
+      <c r="F282" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8875,16 +8875,16 @@
       <c r="B283" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C283" s="9" t="s">
+      <c r="C283" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="E283" s="10" t="s">
+      <c r="E283" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F283" s="11" t="s">
+      <c r="F283" s="10" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8895,16 +8895,16 @@
       <c r="B284" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C284" s="9" t="s">
+      <c r="C284" s="8" t="s">
         <v>782</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="E284" s="10" t="s">
+      <c r="E284" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F284" s="12" t="s">
+      <c r="F284" s="11" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8930,7 +8930,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>676</v>
       </c>
       <c r="E3" t="s">
@@ -8942,7 +8942,7 @@
       </c>
     </row>
     <row r="4" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>677</v>
       </c>
       <c r="E4" t="s">
@@ -8954,7 +8954,7 @@
       </c>
     </row>
     <row r="5" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>679</v>
       </c>
       <c r="E5" t="s">
@@ -8966,7 +8966,7 @@
       </c>
     </row>
     <row r="6" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>678</v>
       </c>
       <c r="E6" t="s">
@@ -8978,7 +8978,7 @@
       </c>
     </row>
     <row r="7" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>680</v>
       </c>
       <c r="E7" t="s">
@@ -8990,7 +8990,7 @@
       </c>
     </row>
     <row r="8" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>681</v>
       </c>
       <c r="E8" t="s">
@@ -9002,7 +9002,7 @@
       </c>
     </row>
     <row r="9" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>682</v>
       </c>
       <c r="E9" t="s">
@@ -9014,7 +9014,7 @@
       </c>
     </row>
     <row r="10" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>683</v>
       </c>
       <c r="E10" t="s">
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="11" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>684</v>
       </c>
       <c r="E11" t="s">
@@ -9038,7 +9038,7 @@
       </c>
     </row>
     <row r="12" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>685</v>
       </c>
       <c r="E12" t="s">
@@ -9050,7 +9050,7 @@
       </c>
     </row>
     <row r="13" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>686</v>
       </c>
       <c r="E13" t="s">
@@ -9062,7 +9062,7 @@
       </c>
     </row>
     <row r="14" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>687</v>
       </c>
       <c r="E14" t="s">
@@ -9074,7 +9074,7 @@
       </c>
     </row>
     <row r="15" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>688</v>
       </c>
       <c r="E15" t="s">
@@ -9086,7 +9086,7 @@
       </c>
     </row>
     <row r="16" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>689</v>
       </c>
       <c r="E16" t="s">
@@ -9098,7 +9098,7 @@
       </c>
     </row>
     <row r="17" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>661</v>
       </c>
       <c r="E17" t="s">
@@ -9110,7 +9110,7 @@
       </c>
     </row>
     <row r="18" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>662</v>
       </c>
       <c r="E18" t="s">
@@ -9122,7 +9122,7 @@
       </c>
     </row>
     <row r="19" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>663</v>
       </c>
       <c r="E19" t="s">
@@ -9134,7 +9134,7 @@
       </c>
     </row>
     <row r="20" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>664</v>
       </c>
       <c r="E20" t="s">
@@ -9146,7 +9146,7 @@
       </c>
     </row>
     <row r="21" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>665</v>
       </c>
       <c r="E21" t="s">
@@ -9158,7 +9158,7 @@
       </c>
     </row>
     <row r="22" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>666</v>
       </c>
       <c r="E22" t="s">
@@ -9170,7 +9170,7 @@
       </c>
     </row>
     <row r="23" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>667</v>
       </c>
       <c r="E23" t="s">
@@ -9182,7 +9182,7 @@
       </c>
     </row>
     <row r="24" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>668</v>
       </c>
       <c r="E24" t="s">
@@ -9194,7 +9194,7 @@
       </c>
     </row>
     <row r="25" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>669</v>
       </c>
       <c r="E25" t="s">
@@ -9206,7 +9206,7 @@
       </c>
     </row>
     <row r="26" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>670</v>
       </c>
       <c r="E26" t="s">
@@ -9218,7 +9218,7 @@
       </c>
     </row>
     <row r="27" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>671</v>
       </c>
       <c r="E27" t="s">
@@ -9230,7 +9230,7 @@
       </c>
     </row>
     <row r="28" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>672</v>
       </c>
       <c r="E28" t="s">
@@ -9242,7 +9242,7 @@
       </c>
     </row>
     <row r="29" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>673</v>
       </c>
       <c r="E29" t="s">
@@ -9254,7 +9254,7 @@
       </c>
     </row>
     <row r="30" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>674</v>
       </c>
       <c r="E30" t="s">
@@ -9266,7 +9266,7 @@
       </c>
     </row>
     <row r="31" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>675</v>
       </c>
       <c r="E31" t="s">
@@ -9278,7 +9278,7 @@
       </c>
     </row>
     <row r="32" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>690</v>
       </c>
       <c r="E32" t="s">
@@ -9290,7 +9290,7 @@
       </c>
     </row>
     <row r="33" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>691</v>
       </c>
       <c r="E33" t="s">
@@ -9302,7 +9302,7 @@
       </c>
     </row>
     <row r="34" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>692</v>
       </c>
       <c r="E34" t="s">
@@ -9314,7 +9314,7 @@
       </c>
     </row>
     <row r="35" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>693</v>
       </c>
       <c r="E35" t="s">
@@ -9326,7 +9326,7 @@
       </c>
     </row>
     <row r="36" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>694</v>
       </c>
       <c r="E36" t="s">
@@ -9338,7 +9338,7 @@
       </c>
     </row>
     <row r="37" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>695</v>
       </c>
       <c r="E37" t="s">
@@ -9350,7 +9350,7 @@
       </c>
     </row>
     <row r="38" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>696</v>
       </c>
       <c r="E38" t="s">
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="39" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>697</v>
       </c>
       <c r="E39" t="s">
@@ -9374,7 +9374,7 @@
       </c>
     </row>
     <row r="40" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>698</v>
       </c>
       <c r="E40" t="s">
@@ -9386,7 +9386,7 @@
       </c>
     </row>
     <row r="41" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>699</v>
       </c>
       <c r="E41" t="s">
@@ -9398,7 +9398,7 @@
       </c>
     </row>
     <row r="42" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>700</v>
       </c>
       <c r="E42" t="s">
@@ -9410,7 +9410,7 @@
       </c>
     </row>
     <row r="43" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>701</v>
       </c>
       <c r="E43" t="s">
@@ -9422,7 +9422,7 @@
       </c>
     </row>
     <row r="44" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>702</v>
       </c>
       <c r="E44" t="s">
@@ -9434,7 +9434,7 @@
       </c>
     </row>
     <row r="45" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>703</v>
       </c>
       <c r="E45" t="s">
@@ -9446,7 +9446,7 @@
       </c>
     </row>
     <row r="46" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>704</v>
       </c>
       <c r="E46" t="s">
@@ -9458,7 +9458,7 @@
       </c>
     </row>
     <row r="47" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>705</v>
       </c>
       <c r="E47" t="s">
@@ -9470,7 +9470,7 @@
       </c>
     </row>
     <row r="48" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>706</v>
       </c>
       <c r="E48" t="s">
@@ -9482,7 +9482,7 @@
       </c>
     </row>
     <row r="49" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>707</v>
       </c>
       <c r="E49" t="s">
@@ -9494,7 +9494,7 @@
       </c>
     </row>
     <row r="50" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>708</v>
       </c>
       <c r="E50" t="s">
@@ -9506,7 +9506,7 @@
       </c>
     </row>
     <row r="51" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>709</v>
       </c>
       <c r="E51" t="s">
@@ -9518,7 +9518,7 @@
       </c>
     </row>
     <row r="52" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>710</v>
       </c>
       <c r="E52" t="s">
@@ -9530,7 +9530,7 @@
       </c>
     </row>
     <row r="53" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>711</v>
       </c>
       <c r="E53" t="s">
@@ -9542,7 +9542,7 @@
       </c>
     </row>
     <row r="54" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>712</v>
       </c>
       <c r="E54" t="s">
@@ -9554,7 +9554,7 @@
       </c>
     </row>
     <row r="55" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>713</v>
       </c>
       <c r="E55" t="s">
@@ -9566,7 +9566,7 @@
       </c>
     </row>
     <row r="56" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>714</v>
       </c>
       <c r="E56" t="s">
@@ -9578,7 +9578,7 @@
       </c>
     </row>
     <row r="57" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>715</v>
       </c>
       <c r="E57" t="s">
@@ -9590,7 +9590,7 @@
       </c>
     </row>
     <row r="58" spans="4:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>716</v>
       </c>
       <c r="E58" t="s">
@@ -9602,7 +9602,7 @@
       </c>
     </row>
     <row r="59" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>717</v>
       </c>
       <c r="E59" t="s">
@@ -9614,7 +9614,7 @@
       </c>
     </row>
     <row r="60" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>718</v>
       </c>
       <c r="E60" t="s">
@@ -9626,7 +9626,7 @@
       </c>
     </row>
     <row r="61" spans="4:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>719</v>
       </c>
       <c r="E61" t="s">
